--- a/Tesis data/Data nivel - var.xlsx
+++ b/Tesis data/Data nivel - var.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2497e95eb19b2b76/Desktop/Tesis general/Tesis Lenovo/Tesis-paper/Tesis data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{C218FCD0-90FA-4207-BCAB-CB49FA84EA9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AB6B7309-D842-4175-86EE-F2D23CD994BD}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{C218FCD0-90FA-4207-BCAB-CB49FA84EA9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A0EE2EF5-6181-48A8-8E07-216B493D28F3}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" activeTab="1" xr2:uid="{CDDADCB5-4BA0-43E2-B59F-550C90ECB0A3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{CDDADCB5-4BA0-43E2-B59F-550C90ECB0A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Niveles" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="24">
   <si>
     <t>Fecha</t>
   </si>
@@ -45,9 +45,6 @@
   </si>
   <si>
     <t>BZSCORE</t>
-  </si>
-  <si>
-    <t>GLOBAL_CAP</t>
   </si>
   <si>
     <t>FINOP</t>
@@ -91,12 +88,24 @@
   <si>
     <t>5. Se comprueba que todas las serie</t>
   </si>
+  <si>
+    <t>GLOBAL</t>
+  </si>
+  <si>
+    <t>Datos anualizados</t>
+  </si>
+  <si>
+    <t>mult. X100</t>
+  </si>
+  <si>
+    <t>Datos sin tendencia</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,6 +118,35 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -156,24 +194,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
@@ -185,6 +214,25 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -500,66 +548,81 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BABB33F4-2126-4B83-9A1A-8A093CAE25BC}">
-  <dimension ref="A1:O96"/>
+  <dimension ref="A1:AG96"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="X4" sqref="X4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="6" max="7" width="13.6640625" customWidth="1"/>
     <col min="9" max="9" width="13.33203125" customWidth="1"/>
+    <col min="16" max="16" width="11.5546875" customWidth="1"/>
+    <col min="17" max="17" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="23" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="J1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P1" s="13"/>
+      <c r="Y1" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="14"/>
+      <c r="AA1" s="14"/>
+      <c r="AB1" s="14"/>
+      <c r="AC1" s="14"/>
+      <c r="AD1" s="14"/>
+      <c r="AE1" s="14"/>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>36981</v>
       </c>
@@ -605,8 +668,26 @@
       <c r="O2" s="2">
         <v>55.353395348088</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="Y2" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z2" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA2" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC2" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>37072</v>
       </c>
@@ -652,8 +733,32 @@
       <c r="O3" s="2">
         <v>55.038392069192497</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="Y3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE3" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>37164</v>
       </c>
@@ -699,8 +804,43 @@
       <c r="O4" s="2">
         <v>53.886935223888301</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P4" s="2"/>
+      <c r="Q4" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
+      <c r="U4" s="14"/>
+      <c r="V4" s="14"/>
+      <c r="W4" s="14"/>
+      <c r="X4" s="1">
+        <v>37164</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>5.4920957530999459</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>-4.3162453082631558</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>0.34445750344014309</v>
+      </c>
+      <c r="AB4" s="2">
+        <v>-4.0757470961545925</v>
+      </c>
+      <c r="AC4" s="2">
+        <v>5.9999999999991624</v>
+      </c>
+      <c r="AD4" s="2">
+        <v>-4.6489678504235599</v>
+      </c>
+      <c r="AE4" s="2">
+        <v>-1.5230214083645799E-2</v>
+      </c>
+      <c r="AG4" s="15"/>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>37256</v>
       </c>
@@ -746,8 +886,54 @@
       <c r="O5" s="2">
         <v>56.448933943884299</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P5" s="2"/>
+      <c r="Q5" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="R5" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="S5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="T5" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="U5" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="V5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="W5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="X5" s="1">
+        <v>37256</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>16.842740511808341</v>
+      </c>
+      <c r="Z5" s="2">
+        <v>5.9080843764848012</v>
+      </c>
+      <c r="AA5" s="2">
+        <v>1.188378386868383</v>
+      </c>
+      <c r="AB5" s="2">
+        <v>-0.9811807974871023</v>
+      </c>
+      <c r="AC5" s="2">
+        <v>42.750000000000909</v>
+      </c>
+      <c r="AD5" s="2">
+        <v>-10.992687729110459</v>
+      </c>
+      <c r="AE5" s="2">
+        <v>-0.81773766561063255</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>37346</v>
       </c>
@@ -793,8 +979,63 @@
       <c r="O6" s="2">
         <v>58.647169152684398</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P6" s="1">
+        <v>37346</v>
+      </c>
+      <c r="Q6" s="2">
+        <f>(E6-E2)/E2*100</f>
+        <v>-9.6814348053361812</v>
+      </c>
+      <c r="R6" s="2">
+        <f>(B6-B2)/B2*100</f>
+        <v>-19.786222102818837</v>
+      </c>
+      <c r="S6" s="2">
+        <f>(C6-C2)/C2*100</f>
+        <v>-3.747987578615529</v>
+      </c>
+      <c r="T6" s="2">
+        <f>(D6-D2)/D2*100</f>
+        <v>-3.2126499815364911</v>
+      </c>
+      <c r="U6" s="2">
+        <f>(G6-G2)/G2*100</f>
+        <v>4.1410633181934164</v>
+      </c>
+      <c r="V6" s="2">
+        <f>(H6-H2)/H2*100</f>
+        <v>-4.099490072607499</v>
+      </c>
+      <c r="W6" s="2">
+        <f>(I6-I2)/I2*100</f>
+        <v>-26.570198005691807</v>
+      </c>
+      <c r="X6" s="1">
+        <v>37346</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>-20.910214447653217</v>
+      </c>
+      <c r="Z6" s="2">
+        <v>2.8754004687914669</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>0.1205601262040501</v>
+      </c>
+      <c r="AB6" s="2">
+        <v>8.0606994384013309</v>
+      </c>
+      <c r="AC6" s="2">
+        <v>-2.4868995751603511E-12</v>
+      </c>
+      <c r="AD6" s="2">
+        <v>-15.910665263083731</v>
+      </c>
+      <c r="AE6" s="2">
+        <v>-0.54345356341411399</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>37437</v>
       </c>
@@ -840,8 +1081,63 @@
       <c r="O7" s="2">
         <v>58.861377342731203</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P7" s="1">
+        <v>37437</v>
+      </c>
+      <c r="Q7" s="2">
+        <f t="shared" ref="Q7:Q70" si="0">(E7-E3)/E3*100</f>
+        <v>-17.824152959117733</v>
+      </c>
+      <c r="R7" s="2">
+        <f t="shared" ref="R7:R70" si="1">(B7-B3)/B3*100</f>
+        <v>-36.4302268204017</v>
+      </c>
+      <c r="S7" s="2">
+        <f t="shared" ref="S7:T22" si="2">(C7-C3)/C3*100</f>
+        <v>-9.019302087776218</v>
+      </c>
+      <c r="T7" s="2">
+        <f t="shared" si="2"/>
+        <v>-1.8568235175179855</v>
+      </c>
+      <c r="U7" s="2">
+        <f t="shared" ref="U7:W7" si="3">(G7-G3)/G3*100</f>
+        <v>7.1311475409836307</v>
+      </c>
+      <c r="V7" s="2">
+        <f t="shared" si="3"/>
+        <v>-6.1885174985803211</v>
+      </c>
+      <c r="W7" s="2">
+        <f t="shared" si="3"/>
+        <v>-22.604693730324556</v>
+      </c>
+      <c r="X7" s="1">
+        <v>37437</v>
+      </c>
+      <c r="Y7" s="2">
+        <v>-48.84087539358584</v>
+      </c>
+      <c r="Z7" s="2">
+        <v>1.121726751321761</v>
+      </c>
+      <c r="AA7" s="2">
+        <v>6.8891500688028628E-2</v>
+      </c>
+      <c r="AB7" s="2">
+        <v>15.382065363623591</v>
+      </c>
+      <c r="AC7" s="2">
+        <v>3.7500000000008535</v>
+      </c>
+      <c r="AD7" s="2">
+        <v>-22.600354397844281</v>
+      </c>
+      <c r="AE7" s="2">
+        <v>-7.9682381872174801E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>37529</v>
       </c>
@@ -887,8 +1183,63 @@
       <c r="O8" s="2">
         <v>57.788424206739201</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P8" s="1">
+        <v>37529</v>
+      </c>
+      <c r="Q8" s="2">
+        <f t="shared" si="0"/>
+        <v>-25.810429117027368</v>
+      </c>
+      <c r="R8" s="2">
+        <f t="shared" si="1"/>
+        <v>-50.877470514003697</v>
+      </c>
+      <c r="S8" s="2">
+        <f t="shared" si="2"/>
+        <v>-14.165403146172329</v>
+      </c>
+      <c r="T8" s="2">
+        <f t="shared" ref="T8:T71" si="4">(D8-D4)/D4*100</f>
+        <v>-2.1062884618632394</v>
+      </c>
+      <c r="U8" s="2">
+        <f t="shared" ref="U8:W8" si="5">(G8-G4)/G4*100</f>
+        <v>1.2329485834207736</v>
+      </c>
+      <c r="V8" s="2">
+        <f t="shared" si="5"/>
+        <v>-3.3673550693650767</v>
+      </c>
+      <c r="W8" s="2">
+        <f t="shared" si="5"/>
+        <v>-17.766088392229811</v>
+      </c>
+      <c r="X8" s="1">
+        <v>37529</v>
+      </c>
+      <c r="Y8" s="2">
+        <v>-44.567967845026772</v>
+      </c>
+      <c r="Z8" s="2">
+        <v>6.4124487075575498</v>
+      </c>
+      <c r="AA8" s="2">
+        <v>0.31001175309608442</v>
+      </c>
+      <c r="AB8" s="2">
+        <v>17.37474716673848</v>
+      </c>
+      <c r="AC8" s="2">
+        <v>-21.916666666665922</v>
+      </c>
+      <c r="AD8" s="2">
+        <v>5.5179019295876506</v>
+      </c>
+      <c r="AE8" s="2">
+        <v>0.70656183521651261</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>37621</v>
       </c>
@@ -934,8 +1285,63 @@
       <c r="O9" s="2">
         <v>59.834677628973502</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P9" s="1">
+        <v>37621</v>
+      </c>
+      <c r="Q9" s="2">
+        <f t="shared" si="0"/>
+        <v>-28.552042557548994</v>
+      </c>
+      <c r="R9" s="2">
+        <f t="shared" si="1"/>
+        <v>-56.440712833295478</v>
+      </c>
+      <c r="S9" s="2">
+        <f t="shared" si="2"/>
+        <v>-15.801553898046761</v>
+      </c>
+      <c r="T9" s="2">
+        <f t="shared" si="4"/>
+        <v>-1.2919217764781183</v>
+      </c>
+      <c r="U9" s="2">
+        <f t="shared" ref="U9:W9" si="6">(G9-G5)/G5*100</f>
+        <v>1.5147689977278276</v>
+      </c>
+      <c r="V9" s="2">
+        <f t="shared" si="6"/>
+        <v>-2.2118104967828818</v>
+      </c>
+      <c r="W9" s="2">
+        <f t="shared" si="6"/>
+        <v>-36.935234667339394</v>
+      </c>
+      <c r="X9" s="1">
+        <v>37621</v>
+      </c>
+      <c r="Y9" s="2">
+        <v>-26.666958323440682</v>
+      </c>
+      <c r="Z9" s="2">
+        <v>8.2884746083183192</v>
+      </c>
+      <c r="AA9" s="2">
+        <v>0.80947513308426977</v>
+      </c>
+      <c r="AB9" s="2">
+        <v>13.346440235518561</v>
+      </c>
+      <c r="AC9" s="2">
+        <v>29.916666666666643</v>
+      </c>
+      <c r="AD9" s="2">
+        <v>-25.262635516256299</v>
+      </c>
+      <c r="AE9" s="2">
+        <v>-1.071629572678847</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>37711</v>
       </c>
@@ -981,8 +1387,63 @@
       <c r="O10" s="2">
         <v>57.258821457384798</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P10" s="1">
+        <v>37711</v>
+      </c>
+      <c r="Q10" s="2">
+        <f t="shared" si="0"/>
+        <v>-27.101847116883082</v>
+      </c>
+      <c r="R10" s="2">
+        <f t="shared" si="1"/>
+        <v>-51.932572228437856</v>
+      </c>
+      <c r="S10" s="2">
+        <f t="shared" si="2"/>
+        <v>-19.960459060876506</v>
+      </c>
+      <c r="T10" s="2">
+        <f t="shared" si="4"/>
+        <v>-0.94129035931891869</v>
+      </c>
+      <c r="U10" s="2">
+        <f t="shared" ref="U10:W10" si="7">(G10-G6)/G6*100</f>
+        <v>0.66700872242201115</v>
+      </c>
+      <c r="V10" s="2">
+        <f t="shared" si="7"/>
+        <v>6.8696415663049546</v>
+      </c>
+      <c r="W10" s="2">
+        <f t="shared" si="7"/>
+        <v>-49.864912226058379</v>
+      </c>
+      <c r="X10" s="1">
+        <v>37711</v>
+      </c>
+      <c r="Y10" s="2">
+        <v>-10.41508654770384</v>
+      </c>
+      <c r="Z10" s="2">
+        <v>7.6773993254312334</v>
+      </c>
+      <c r="AA10" s="2">
+        <v>-0.53390913033217746</v>
+      </c>
+      <c r="AB10" s="2">
+        <v>7.4799699419510812</v>
+      </c>
+      <c r="AC10" s="2">
+        <v>-1.083333333333236</v>
+      </c>
+      <c r="AD10" s="2">
+        <v>6.7422576054075307</v>
+      </c>
+      <c r="AE10" s="2">
+        <v>-1.3245071079299979</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>37802</v>
       </c>
@@ -1028,8 +1489,63 @@
       <c r="O11" s="2">
         <v>58.239679326240399</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P11" s="1">
+        <v>37802</v>
+      </c>
+      <c r="Q11" s="2">
+        <f t="shared" si="0"/>
+        <v>-24.907945510157674</v>
+      </c>
+      <c r="R11" s="2">
+        <f t="shared" si="1"/>
+        <v>-46.051581524057013</v>
+      </c>
+      <c r="S11" s="2">
+        <f t="shared" si="2"/>
+        <v>-22.615772628170362</v>
+      </c>
+      <c r="T11" s="2">
+        <f t="shared" si="4"/>
+        <v>-1.2944946778070321</v>
+      </c>
+      <c r="U11" s="2">
+        <f t="shared" ref="U11:W11" si="8">(G11-G7)/G7*100</f>
+        <v>-0.40805916857945346</v>
+      </c>
+      <c r="V11" s="2">
+        <f t="shared" si="8"/>
+        <v>20.837393681090923</v>
+      </c>
+      <c r="W11" s="2">
+        <f t="shared" si="8"/>
+        <v>-47.02630632407481</v>
+      </c>
+      <c r="X11" s="1">
+        <v>37802</v>
+      </c>
+      <c r="Y11" s="2">
+        <v>-9.6903354729881208</v>
+      </c>
+      <c r="Z11" s="2">
+        <v>6.5175599625819647</v>
+      </c>
+      <c r="AA11" s="2">
+        <v>-8.6114375860035786E-2</v>
+      </c>
+      <c r="AB11" s="2">
+        <v>6.7734444260373561</v>
+      </c>
+      <c r="AC11" s="2">
+        <v>-8.7500000000000355</v>
+      </c>
+      <c r="AD11" s="2">
+        <v>135.33560872050771</v>
+      </c>
+      <c r="AE11" s="2">
+        <v>-0.12754819290158539</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>37894</v>
       </c>
@@ -1075,8 +1591,63 @@
       <c r="O12" s="2">
         <v>62.1941956653801</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P12" s="1">
+        <v>37894</v>
+      </c>
+      <c r="Q12" s="2">
+        <f t="shared" si="0"/>
+        <v>-24.232435715867844</v>
+      </c>
+      <c r="R12" s="2">
+        <f t="shared" si="1"/>
+        <v>-44.424397083584019</v>
+      </c>
+      <c r="S12" s="2">
+        <f t="shared" si="2"/>
+        <v>-24.133160564328893</v>
+      </c>
+      <c r="T12" s="2">
+        <f t="shared" si="4"/>
+        <v>-2.1015701386093499</v>
+      </c>
+      <c r="U12" s="2">
+        <f t="shared" ref="U12:W12" si="9">(G12-G8)/G8*100</f>
+        <v>0.41461518528117058</v>
+      </c>
+      <c r="V12" s="2">
+        <f t="shared" si="9"/>
+        <v>16.807063510782179</v>
+      </c>
+      <c r="W12" s="2">
+        <f t="shared" si="9"/>
+        <v>-48.085508160367063</v>
+      </c>
+      <c r="X12" s="1">
+        <v>37894</v>
+      </c>
+      <c r="Y12" s="2">
+        <v>-6.0860776384654702</v>
+      </c>
+      <c r="Z12" s="2">
+        <v>4.2669593240579839</v>
+      </c>
+      <c r="AA12" s="2">
+        <v>0.91281238411633492</v>
+      </c>
+      <c r="AB12" s="2">
+        <v>4.8015253311699544</v>
+      </c>
+      <c r="AC12" s="2">
+        <v>-21.666666666666682</v>
+      </c>
+      <c r="AD12" s="2">
+        <v>32.891315602740633</v>
+      </c>
+      <c r="AE12" s="2">
+        <v>4.4976535341668011E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>37986</v>
       </c>
@@ -1122,8 +1693,63 @@
       <c r="O13" s="2">
         <v>64.338653885303003</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P13" s="1">
+        <v>37986</v>
+      </c>
+      <c r="Q13" s="2">
+        <f t="shared" si="0"/>
+        <v>-32.358646726261227</v>
+      </c>
+      <c r="R13" s="2">
+        <f t="shared" si="1"/>
+        <v>-64.952098897256917</v>
+      </c>
+      <c r="S13" s="2">
+        <f t="shared" si="2"/>
+        <v>-31.763484825954425</v>
+      </c>
+      <c r="T13" s="2">
+        <f t="shared" si="4"/>
+        <v>-2.3156238066031549</v>
+      </c>
+      <c r="U13" s="2">
+        <f t="shared" ref="U13:W13" si="10">(G13-G9)/G9*100</f>
+        <v>0.87043024123355417</v>
+      </c>
+      <c r="V13" s="2">
+        <f t="shared" si="10"/>
+        <v>16.017384114824811</v>
+      </c>
+      <c r="W13" s="2">
+        <f t="shared" si="10"/>
+        <v>-20.862964705083048</v>
+      </c>
+      <c r="X13" s="1">
+        <v>37986</v>
+      </c>
+      <c r="Y13" s="2">
+        <v>-37.393623217237632</v>
+      </c>
+      <c r="Z13" s="2">
+        <v>14.168789886505609</v>
+      </c>
+      <c r="AA13" s="2">
+        <v>1.3950528889324239</v>
+      </c>
+      <c r="AB13" s="2">
+        <v>20.35811527758387</v>
+      </c>
+      <c r="AC13" s="2">
+        <v>21.166666666666782</v>
+      </c>
+      <c r="AD13" s="2">
+        <v>-18.889259338350708</v>
+      </c>
+      <c r="AE13" s="2">
+        <v>1.7327290484274731E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>38077</v>
       </c>
@@ -1169,8 +1795,63 @@
       <c r="O14" s="2">
         <v>72.329817996837207</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P14" s="1">
+        <v>38077</v>
+      </c>
+      <c r="Q14" s="2">
+        <f t="shared" si="0"/>
+        <v>-32.742525380192617</v>
+      </c>
+      <c r="R14" s="2">
+        <f t="shared" si="1"/>
+        <v>-60.101779612386466</v>
+      </c>
+      <c r="S14" s="2">
+        <f t="shared" si="2"/>
+        <v>-36.111581508154558</v>
+      </c>
+      <c r="T14" s="2">
+        <f t="shared" si="4"/>
+        <v>-1.8004449375420375</v>
+      </c>
+      <c r="U14" s="2">
+        <f t="shared" ref="U14:W14" si="11">(G14-G10)/G10*100</f>
+        <v>5.3516819571865391</v>
+      </c>
+      <c r="V14" s="2">
+        <f t="shared" si="11"/>
+        <v>8.3399973403416467</v>
+      </c>
+      <c r="W14" s="2">
+        <f t="shared" si="11"/>
+        <v>-2.8142118010828483</v>
+      </c>
+      <c r="X14" s="1">
+        <v>38077</v>
+      </c>
+      <c r="Y14" s="2">
+        <v>-14.084143440662741</v>
+      </c>
+      <c r="Z14" s="2">
+        <v>16.142727111226602</v>
+      </c>
+      <c r="AA14" s="2">
+        <v>-0.6372463813642204</v>
+      </c>
+      <c r="AB14" s="2">
+        <v>13.601480275616101</v>
+      </c>
+      <c r="AC14" s="2">
+        <v>21.666666666666501</v>
+      </c>
+      <c r="AD14" s="2">
+        <v>-6.3662983607582646</v>
+      </c>
+      <c r="AE14" s="2">
+        <v>-0.29969775610663069</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>38168</v>
       </c>
@@ -1216,8 +1897,63 @@
       <c r="O15" s="2">
         <v>69.898358319047205</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P15" s="1">
+        <v>38168</v>
+      </c>
+      <c r="Q15" s="2">
+        <f t="shared" si="0"/>
+        <v>-28.841651355417238</v>
+      </c>
+      <c r="R15" s="2">
+        <f t="shared" si="1"/>
+        <v>-51.91163165554434</v>
+      </c>
+      <c r="S15" s="2">
+        <f t="shared" si="2"/>
+        <v>-33.894071041736275</v>
+      </c>
+      <c r="T15" s="2">
+        <f t="shared" si="4"/>
+        <v>-1.3114716079732116</v>
+      </c>
+      <c r="U15" s="2">
+        <f t="shared" ref="U15:W15" si="12">(G15-G11)/G11*100</f>
+        <v>7.836107554417425</v>
+      </c>
+      <c r="V15" s="2">
+        <f t="shared" si="12"/>
+        <v>-2.2470312566093935</v>
+      </c>
+      <c r="W15" s="2">
+        <f t="shared" si="12"/>
+        <v>6.9817511104750389</v>
+      </c>
+      <c r="X15" s="1">
+        <v>38168</v>
+      </c>
+      <c r="Y15" s="2">
+        <v>9.776555004836073</v>
+      </c>
+      <c r="Z15" s="2">
+        <v>1.192879339640873</v>
+      </c>
+      <c r="AA15" s="2">
+        <v>-0.25834312758006289</v>
+      </c>
+      <c r="AB15" s="2">
+        <v>-2.3429666422245981</v>
+      </c>
+      <c r="AC15" s="2">
+        <v>17.416666666666639</v>
+      </c>
+      <c r="AD15" s="2">
+        <v>10.27065063034888</v>
+      </c>
+      <c r="AE15" s="2">
+        <v>0.33348875877493178</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>38260</v>
       </c>
@@ -1263,8 +1999,63 @@
       <c r="O16" s="2">
         <v>66.525373502038704</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P16" s="1">
+        <v>38260</v>
+      </c>
+      <c r="Q16" s="2">
+        <f t="shared" si="0"/>
+        <v>-33.299209985630348</v>
+      </c>
+      <c r="R16" s="2">
+        <f t="shared" si="1"/>
+        <v>-64.656275362570028</v>
+      </c>
+      <c r="S16" s="2">
+        <f t="shared" si="2"/>
+        <v>-40.490697730727852</v>
+      </c>
+      <c r="T16" s="2">
+        <f t="shared" si="4"/>
+        <v>-0.30666917328568588</v>
+      </c>
+      <c r="U16" s="2">
+        <f t="shared" ref="U16:W16" si="13">(G16-G12)/G12*100</f>
+        <v>9.2645161290322768</v>
+      </c>
+      <c r="V16" s="2">
+        <f t="shared" si="13"/>
+        <v>-0.869711421261397</v>
+      </c>
+      <c r="W16" s="2">
+        <f t="shared" si="13"/>
+        <v>3.4644276813489827</v>
+      </c>
+      <c r="X16" s="1">
+        <v>38260</v>
+      </c>
+      <c r="Y16" s="2">
+        <v>-5.3375854227481696</v>
+      </c>
+      <c r="Z16" s="2">
+        <v>10.01831587153057</v>
+      </c>
+      <c r="AA16" s="2">
+        <v>1.7222875172029358E-2</v>
+      </c>
+      <c r="AB16" s="2">
+        <v>7.6076969846739395</v>
+      </c>
+      <c r="AC16" s="2">
+        <v>12.333333333333311</v>
+      </c>
+      <c r="AD16" s="2">
+        <v>3.1135740792012712</v>
+      </c>
+      <c r="AE16" s="2">
+        <v>0.22352200605888981</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>38352</v>
       </c>
@@ -1310,8 +2101,63 @@
       <c r="O17" s="2">
         <v>68.793303817098604</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P17" s="1">
+        <v>38352</v>
+      </c>
+      <c r="Q17" s="2">
+        <f t="shared" si="0"/>
+        <v>-30.064264743917285</v>
+      </c>
+      <c r="R17" s="2">
+        <f t="shared" si="1"/>
+        <v>-87.078384592845765</v>
+      </c>
+      <c r="S17" s="2">
+        <f t="shared" si="2"/>
+        <v>-36.408625910322705</v>
+      </c>
+      <c r="T17" s="2">
+        <f t="shared" si="4"/>
+        <v>-0.41226365919537894</v>
+      </c>
+      <c r="U17" s="2">
+        <f t="shared" ref="U17:W17" si="14">(G17-G13)/G13*100</f>
+        <v>3.7721893491124239</v>
+      </c>
+      <c r="V17" s="2">
+        <f t="shared" si="14"/>
+        <v>-1.4543031436641138</v>
+      </c>
+      <c r="W17" s="2">
+        <f t="shared" si="14"/>
+        <v>-12.285208390526705</v>
+      </c>
+      <c r="X17" s="1">
+        <v>38352</v>
+      </c>
+      <c r="Y17" s="2">
+        <v>-27.019937792157613</v>
+      </c>
+      <c r="Z17" s="2">
+        <v>8.246108075197478</v>
+      </c>
+      <c r="AA17" s="2">
+        <v>0.5166862551601481</v>
+      </c>
+      <c r="AB17" s="2">
+        <v>13.292861428684979</v>
+      </c>
+      <c r="AC17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="2">
+        <v>-49.868340416355068</v>
+      </c>
+      <c r="AE17" s="2">
+        <v>-0.54987744007094408</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>38442</v>
       </c>
@@ -1357,8 +2203,63 @@
       <c r="O18" s="2">
         <v>70.400009461609301</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P18" s="1">
+        <v>38442</v>
+      </c>
+      <c r="Q18" s="2">
+        <f t="shared" si="0"/>
+        <v>-29.882168821749762</v>
+      </c>
+      <c r="R18" s="2">
+        <f t="shared" si="1"/>
+        <v>-81.571178253450711</v>
+      </c>
+      <c r="S18" s="2">
+        <f t="shared" si="2"/>
+        <v>-36.748950191428712</v>
+      </c>
+      <c r="T18" s="2">
+        <f t="shared" si="4"/>
+        <v>-2.1899604858773767</v>
+      </c>
+      <c r="U18" s="2">
+        <f t="shared" ref="U18:W18" si="15">(G18-G14)/G14*100</f>
+        <v>1.1611030478955018</v>
+      </c>
+      <c r="V18" s="2">
+        <f t="shared" si="15"/>
+        <v>5.6591874319952176</v>
+      </c>
+      <c r="W18" s="2">
+        <f t="shared" si="15"/>
+        <v>9.5594769180042345</v>
+      </c>
+      <c r="X18" s="1">
+        <v>38442</v>
+      </c>
+      <c r="Y18" s="2">
+        <v>-3.7501931787160205</v>
+      </c>
+      <c r="Z18" s="2">
+        <v>10.6088499775603</v>
+      </c>
+      <c r="AA18" s="2">
+        <v>0.67169213170823472</v>
+      </c>
+      <c r="AB18" s="2">
+        <v>7.7842449524874402</v>
+      </c>
+      <c r="AC18" s="2">
+        <v>3.416666666666579</v>
+      </c>
+      <c r="AD18" s="2">
+        <v>60.496191745388607</v>
+      </c>
+      <c r="AE18" s="2">
+        <v>6.3262327621405934E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>38533</v>
       </c>
@@ -1404,8 +2305,63 @@
       <c r="O19" s="2">
         <v>73.200002036372695</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P19" s="1">
+        <v>38533</v>
+      </c>
+      <c r="Q19" s="2">
+        <f t="shared" si="0"/>
+        <v>-29.488979413106875</v>
+      </c>
+      <c r="R19" s="2">
+        <f t="shared" si="1"/>
+        <v>-99.137667997303751</v>
+      </c>
+      <c r="S19" s="2">
+        <f t="shared" si="2"/>
+        <v>-30.774602065594625</v>
+      </c>
+      <c r="T19" s="2">
+        <f t="shared" si="4"/>
+        <v>-1.9933496263570487</v>
+      </c>
+      <c r="U19" s="2">
+        <f t="shared" ref="U19:W19" si="16">(G19-G15)/G15*100</f>
+        <v>-3.5383519354072628</v>
+      </c>
+      <c r="V19" s="2">
+        <f t="shared" si="16"/>
+        <v>4.5433498977577553</v>
+      </c>
+      <c r="W19" s="2">
+        <f t="shared" si="16"/>
+        <v>-1.3721678799443553</v>
+      </c>
+      <c r="X19" s="1">
+        <v>38533</v>
+      </c>
+      <c r="Y19" s="2">
+        <v>0.67417864894174862</v>
+      </c>
+      <c r="Z19" s="2">
+        <v>-5.6531728846780149</v>
+      </c>
+      <c r="AA19" s="2">
+        <v>-0.29278887792412173</v>
+      </c>
+      <c r="AB19" s="2">
+        <v>-3.720146530444346</v>
+      </c>
+      <c r="AC19" s="2">
+        <v>-12.999999999999901</v>
+      </c>
+      <c r="AD19" s="2">
+        <v>36.326902579014359</v>
+      </c>
+      <c r="AE19" s="2">
+        <v>0.36903882587712727</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>38625</v>
       </c>
@@ -1451,8 +2407,63 @@
       <c r="O20" s="2">
         <v>73.173751788070902</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P20" s="1">
+        <v>38625</v>
+      </c>
+      <c r="Q20" s="2">
+        <f t="shared" si="0"/>
+        <v>-34.081448011649826</v>
+      </c>
+      <c r="R20" s="2">
+        <f t="shared" si="1"/>
+        <v>-151.02213256225869</v>
+      </c>
+      <c r="S20" s="2">
+        <f t="shared" si="2"/>
+        <v>-38.187794854037762</v>
+      </c>
+      <c r="T20" s="2">
+        <f t="shared" si="4"/>
+        <v>-3.4862752955319416</v>
+      </c>
+      <c r="U20" s="2">
+        <f t="shared" ref="U20:W20" si="17">(G20-G16)/G16*100</f>
+        <v>-6.6839867737364322</v>
+      </c>
+      <c r="V20" s="2">
+        <f t="shared" si="17"/>
+        <v>3.7797940135054984</v>
+      </c>
+      <c r="W20" s="2">
+        <f t="shared" si="17"/>
+        <v>-4.6867987328492244</v>
+      </c>
+      <c r="X20" s="1">
+        <v>38625</v>
+      </c>
+      <c r="Y20" s="2">
+        <v>-8.0103858400878849</v>
+      </c>
+      <c r="Z20" s="2">
+        <v>11.428051349183601</v>
+      </c>
+      <c r="AA20" s="2">
+        <v>0.43057187930013452</v>
+      </c>
+      <c r="AB20" s="2">
+        <v>9.4442990575033363</v>
+      </c>
+      <c r="AC20" s="2">
+        <v>-10.99999999999994</v>
+      </c>
+      <c r="AD20" s="2">
+        <v>-24.948005718431201</v>
+      </c>
+      <c r="AE20" s="2">
+        <v>-3.6724204837154328E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>38717</v>
       </c>
@@ -1498,8 +2509,63 @@
       <c r="O21" s="2">
         <v>79.881436338533405</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P21" s="1">
+        <v>38717</v>
+      </c>
+      <c r="Q21" s="2">
+        <f t="shared" si="0"/>
+        <v>-31.696518841733205</v>
+      </c>
+      <c r="R21" s="2">
+        <f t="shared" si="1"/>
+        <v>-672.04799855096815</v>
+      </c>
+      <c r="S21" s="2">
+        <f t="shared" si="2"/>
+        <v>-29.625767223612353</v>
+      </c>
+      <c r="T21" s="2">
+        <f t="shared" si="4"/>
+        <v>-5.0711362771221991</v>
+      </c>
+      <c r="U21" s="2">
+        <f t="shared" ref="U21:W21" si="18">(G21-G17)/G17*100</f>
+        <v>-11.119030648610137</v>
+      </c>
+      <c r="V21" s="2">
+        <f t="shared" si="18"/>
+        <v>7.3969183069719975</v>
+      </c>
+      <c r="W21" s="2">
+        <f t="shared" si="18"/>
+        <v>5.0662118809404557</v>
+      </c>
+      <c r="X21" s="1">
+        <v>38717</v>
+      </c>
+      <c r="Y21" s="2">
+        <v>-19.4827796538051</v>
+      </c>
+      <c r="Z21" s="2">
+        <v>1.9380096416862562</v>
+      </c>
+      <c r="AA21" s="2">
+        <v>1.739510392372567</v>
+      </c>
+      <c r="AB21" s="2">
+        <v>7.8133578186039827</v>
+      </c>
+      <c r="AC21" s="2">
+        <v>-43.750000000000178</v>
+      </c>
+      <c r="AD21" s="2">
+        <v>7.8583456791272974</v>
+      </c>
+      <c r="AE21" s="2">
+        <v>-0.24656667653873221</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>38807</v>
       </c>
@@ -1545,8 +2611,63 @@
       <c r="O22" s="2">
         <v>84.497504089123595</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P22" s="1">
+        <v>38807</v>
+      </c>
+      <c r="Q22" s="2">
+        <f t="shared" si="0"/>
+        <v>-36.201515857093952</v>
+      </c>
+      <c r="R22" s="2">
+        <f t="shared" si="1"/>
+        <v>-512.68392884970581</v>
+      </c>
+      <c r="S22" s="2">
+        <f t="shared" si="2"/>
+        <v>-34.292311946404013</v>
+      </c>
+      <c r="T22" s="2">
+        <f t="shared" si="4"/>
+        <v>-6.0400756505709783</v>
+      </c>
+      <c r="U22" s="2">
+        <f t="shared" ref="U22:W22" si="19">(G22-G18)/G18*100</f>
+        <v>-10.688665710186502</v>
+      </c>
+      <c r="V22" s="2">
+        <f t="shared" si="19"/>
+        <v>0.73071997679252887</v>
+      </c>
+      <c r="W22" s="2">
+        <f t="shared" si="19"/>
+        <v>-11.009027731005872</v>
+      </c>
+      <c r="X22" s="1">
+        <v>38807</v>
+      </c>
+      <c r="Y22" s="2">
+        <v>-10.3422354230472</v>
+      </c>
+      <c r="Z22" s="2">
+        <v>6.8729987096728067</v>
+      </c>
+      <c r="AA22" s="2">
+        <v>1.6533960165125761</v>
+      </c>
+      <c r="AB22" s="2">
+        <v>7.9800624857245701</v>
+      </c>
+      <c r="AC22" s="2">
+        <v>-21.083333333333172</v>
+      </c>
+      <c r="AD22" s="2">
+        <v>-0.61275719781360749</v>
+      </c>
+      <c r="AE22" s="2">
+        <v>-8.8379434461520301E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>38898</v>
       </c>
@@ -1592,8 +2713,63 @@
       <c r="O23" s="2">
         <v>97.068228230383795</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P23" s="1">
+        <v>38898</v>
+      </c>
+      <c r="Q23" s="2">
+        <f t="shared" si="0"/>
+        <v>-33.321221402434126</v>
+      </c>
+      <c r="R23" s="2">
+        <f t="shared" si="1"/>
+        <v>-7755.0142847764037</v>
+      </c>
+      <c r="S23" s="2">
+        <f t="shared" ref="S23:S86" si="20">(C23-C19)/C19*100</f>
+        <v>-35.076314308828231</v>
+      </c>
+      <c r="T23" s="2">
+        <f t="shared" si="4"/>
+        <v>-6.5188852856021038</v>
+      </c>
+      <c r="U23" s="2">
+        <f t="shared" ref="U23:W23" si="21">(G23-G19)/G19*100</f>
+        <v>-7.2870507139340335</v>
+      </c>
+      <c r="V23" s="2">
+        <f t="shared" si="21"/>
+        <v>4.4853177285542731</v>
+      </c>
+      <c r="W23" s="2">
+        <f t="shared" si="21"/>
+        <v>-16.392545792871296</v>
+      </c>
+      <c r="X23" s="1">
+        <v>38898</v>
+      </c>
+      <c r="Y23" s="2">
+        <v>3.3749813300215306</v>
+      </c>
+      <c r="Z23" s="2">
+        <v>-1.26028960271789</v>
+      </c>
+      <c r="AA23" s="2">
+        <v>1.7222875171984949E-2</v>
+      </c>
+      <c r="AB23" s="2">
+        <v>-1.760687276593687</v>
+      </c>
+      <c r="AC23" s="2">
+        <v>8.9999999999999858</v>
+      </c>
+      <c r="AD23" s="2">
+        <v>19.410179781849589</v>
+      </c>
+      <c r="AE23" s="2">
+        <v>4.3868677394822697E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>38990</v>
       </c>
@@ -1639,8 +2815,63 @@
       <c r="O24" s="2">
         <v>96.400059861835203</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P24" s="1">
+        <v>38990</v>
+      </c>
+      <c r="Q24" s="2">
+        <f t="shared" si="0"/>
+        <v>-28.817914774473746</v>
+      </c>
+      <c r="R24" s="2">
+        <f t="shared" si="1"/>
+        <v>142.49104266378322</v>
+      </c>
+      <c r="S24" s="2">
+        <f t="shared" si="20"/>
+        <v>-30.279720729228664</v>
+      </c>
+      <c r="T24" s="2">
+        <f t="shared" si="4"/>
+        <v>-7.5962583497172815</v>
+      </c>
+      <c r="U24" s="2">
+        <f t="shared" ref="U24:W24" si="22">(G24-G20)/G20*100</f>
+        <v>-5.9984813971146478</v>
+      </c>
+      <c r="V24" s="2">
+        <f t="shared" si="22"/>
+        <v>9.4867320055012812</v>
+      </c>
+      <c r="W24" s="2">
+        <f t="shared" si="22"/>
+        <v>-13.600623117255333</v>
+      </c>
+      <c r="X24" s="1">
+        <v>38990</v>
+      </c>
+      <c r="Y24" s="2">
+        <v>3.0551194785017892</v>
+      </c>
+      <c r="Z24" s="2">
+        <v>6.1003868843751468</v>
+      </c>
+      <c r="AA24" s="2">
+        <v>0.99892675997630409</v>
+      </c>
+      <c r="AB24" s="2">
+        <v>3.1908740316450079</v>
+      </c>
+      <c r="AC24" s="2">
+        <v>-6.8333333333333357</v>
+      </c>
+      <c r="AD24" s="2">
+        <v>46.885955113359387</v>
+      </c>
+      <c r="AE24" s="2">
+        <v>-9.7968218301484278E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>39082</v>
       </c>
@@ -1686,8 +2917,63 @@
       <c r="O25" s="2">
         <v>98.4981364577595</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P25" s="1">
+        <v>39082</v>
+      </c>
+      <c r="Q25" s="2">
+        <f t="shared" si="0"/>
+        <v>-28.939840389379107</v>
+      </c>
+      <c r="R25" s="2">
+        <f t="shared" si="1"/>
+        <v>45.780013832626501</v>
+      </c>
+      <c r="S25" s="2">
+        <f t="shared" si="20"/>
+        <v>-29.35659193551745</v>
+      </c>
+      <c r="T25" s="2">
+        <f t="shared" si="4"/>
+        <v>-8.4491422413253208</v>
+      </c>
+      <c r="U25" s="2">
+        <f t="shared" ref="U25:W25" si="23">(G25-G21)/G21*100</f>
+        <v>-0.48115477145145907</v>
+      </c>
+      <c r="V25" s="2">
+        <f t="shared" si="23"/>
+        <v>7.7535656956083239</v>
+      </c>
+      <c r="W25" s="2">
+        <f t="shared" si="23"/>
+        <v>-5.7968965708157381</v>
+      </c>
+      <c r="X25" s="1">
+        <v>39082</v>
+      </c>
+      <c r="Y25" s="2">
+        <v>-8.6303914292000012</v>
+      </c>
+      <c r="Z25" s="2">
+        <v>-0.85360600813055854</v>
+      </c>
+      <c r="AA25" s="2">
+        <v>1.7567332675445972</v>
+      </c>
+      <c r="AB25" s="2">
+        <v>2.888891287683315</v>
+      </c>
+      <c r="AC25" s="2">
+        <v>-0.41666666666646524</v>
+      </c>
+      <c r="AD25" s="2">
+        <v>17.432987986853728</v>
+      </c>
+      <c r="AE25" s="2">
+        <v>-1.160469781719708E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>39172</v>
       </c>
@@ -1733,8 +3019,63 @@
       <c r="O26" s="2">
         <v>100.11919074011</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P26" s="1">
+        <v>39172</v>
+      </c>
+      <c r="Q26" s="2">
+        <f t="shared" si="0"/>
+        <v>-36.388547115476314</v>
+      </c>
+      <c r="R26" s="2">
+        <f t="shared" si="1"/>
+        <v>55.255350675542893</v>
+      </c>
+      <c r="S26" s="2">
+        <f t="shared" si="20"/>
+        <v>-34.159792690608732</v>
+      </c>
+      <c r="T26" s="2">
+        <f t="shared" si="4"/>
+        <v>-10.86169995923359</v>
+      </c>
+      <c r="U26" s="2">
+        <f t="shared" ref="U26:W26" si="24">(G26-G22)/G22*100</f>
+        <v>-1.0977242302543653</v>
+      </c>
+      <c r="V26" s="2">
+        <f t="shared" si="24"/>
+        <v>7.4412521168880943</v>
+      </c>
+      <c r="W26" s="2">
+        <f t="shared" si="24"/>
+        <v>-9.2861230437851123</v>
+      </c>
+      <c r="X26" s="1">
+        <v>39172</v>
+      </c>
+      <c r="Y26" s="2">
+        <v>-8.0536919034353343</v>
+      </c>
+      <c r="Z26" s="2">
+        <v>6.4555889491042127</v>
+      </c>
+      <c r="AA26" s="2">
+        <v>2.8417744033809371</v>
+      </c>
+      <c r="AB26" s="2">
+        <v>7.5875851558962424</v>
+      </c>
+      <c r="AC26" s="2">
+        <v>2.9166666666665009</v>
+      </c>
+      <c r="AD26" s="2">
+        <v>11.03981887182454</v>
+      </c>
+      <c r="AE26" s="2">
+        <v>-1.0588219532028149</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>39263</v>
       </c>
@@ -1780,8 +3121,63 @@
       <c r="O27" s="2">
         <v>102.026610026019</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P27" s="1">
+        <v>39263</v>
+      </c>
+      <c r="Q27" s="2">
+        <f t="shared" si="0"/>
+        <v>-40.811749928476324</v>
+      </c>
+      <c r="R27" s="2">
+        <f t="shared" si="1"/>
+        <v>88.259921483443335</v>
+      </c>
+      <c r="S27" s="2">
+        <f t="shared" si="20"/>
+        <v>-31.653264107479686</v>
+      </c>
+      <c r="T27" s="2">
+        <f t="shared" si="4"/>
+        <v>-12.32910970323444</v>
+      </c>
+      <c r="U27" s="2">
+        <f t="shared" ref="U27:W27" si="25">(G27-G23)/G23*100</f>
+        <v>-4.1423260754115736</v>
+      </c>
+      <c r="V27" s="2">
+        <f t="shared" si="25"/>
+        <v>2.8690183267220837</v>
+      </c>
+      <c r="W27" s="2">
+        <f t="shared" si="25"/>
+        <v>101.49527891904519</v>
+      </c>
+      <c r="X27" s="1">
+        <v>39263</v>
+      </c>
+      <c r="Y27" s="2">
+        <v>-6.3107954667571464</v>
+      </c>
+      <c r="Z27" s="2">
+        <v>1.6098832145114261</v>
+      </c>
+      <c r="AA27" s="2">
+        <v>0.84392088342823968</v>
+      </c>
+      <c r="AB27" s="2">
+        <v>3.2473022484192651</v>
+      </c>
+      <c r="AC27" s="2">
+        <v>-12.833333333333391</v>
+      </c>
+      <c r="AD27" s="2">
+        <v>-3.0831456362298009</v>
+      </c>
+      <c r="AE27" s="2">
+        <v>1.613719119244243</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>39355</v>
       </c>
@@ -1827,8 +3223,63 @@
       <c r="O28" s="2">
         <v>96.026485265358303</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P28" s="1">
+        <v>39355</v>
+      </c>
+      <c r="Q28" s="2">
+        <f t="shared" si="0"/>
+        <v>-35.333454837287441</v>
+      </c>
+      <c r="R28" s="2">
+        <f t="shared" si="1"/>
+        <v>70.328730981923002</v>
+      </c>
+      <c r="S28" s="2">
+        <f t="shared" si="20"/>
+        <v>-11.811341854529079</v>
+      </c>
+      <c r="T28" s="2">
+        <f t="shared" si="4"/>
+        <v>-15.17672479301169</v>
+      </c>
+      <c r="U28" s="2">
+        <f t="shared" ref="U28:W28" si="26">(G28-G24)/G24*100</f>
+        <v>-3.9579967689822313</v>
+      </c>
+      <c r="V28" s="2">
+        <f t="shared" si="26"/>
+        <v>-1.4912476612430328</v>
+      </c>
+      <c r="W28" s="2">
+        <f t="shared" si="26"/>
+        <v>152.09933466683674</v>
+      </c>
+      <c r="X28" s="1">
+        <v>39355</v>
+      </c>
+      <c r="Y28" s="2">
+        <v>3.2628084260299062</v>
+      </c>
+      <c r="Z28" s="2">
+        <v>4.3821956621016733</v>
+      </c>
+      <c r="AA28" s="2">
+        <v>2.325088148220789</v>
+      </c>
+      <c r="AB28" s="2">
+        <v>2.7085360505425982</v>
+      </c>
+      <c r="AC28" s="2">
+        <v>-18.99999999999995</v>
+      </c>
+      <c r="AD28" s="2">
+        <v>-33.89826049784665</v>
+      </c>
+      <c r="AE28" s="2">
+        <v>1.0775164059229601</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>39447</v>
       </c>
@@ -1874,8 +3325,63 @@
       <c r="O29" s="2">
         <v>94.723027094300207</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P29" s="1">
+        <v>39447</v>
+      </c>
+      <c r="Q29" s="2">
+        <f t="shared" si="0"/>
+        <v>-22.693818796659869</v>
+      </c>
+      <c r="R29" s="2">
+        <f t="shared" si="1"/>
+        <v>59.287470398397524</v>
+      </c>
+      <c r="S29" s="2">
+        <f t="shared" si="20"/>
+        <v>30.171672236867742</v>
+      </c>
+      <c r="T29" s="2">
+        <f t="shared" si="4"/>
+        <v>-17.743315288433223</v>
+      </c>
+      <c r="U29" s="2">
+        <f t="shared" ref="U29:W29" si="27">(G29-G25)/G25*100</f>
+        <v>-2.6322857910287505</v>
+      </c>
+      <c r="V29" s="2">
+        <f t="shared" si="27"/>
+        <v>1.4428861212473569</v>
+      </c>
+      <c r="W29" s="2">
+        <f t="shared" si="27"/>
+        <v>219.42664540288033</v>
+      </c>
+      <c r="X29" s="1">
+        <v>39447</v>
+      </c>
+      <c r="Y29" s="2">
+        <v>-13.473782207537571</v>
+      </c>
+      <c r="Z29" s="2">
+        <v>-15.325862272997659</v>
+      </c>
+      <c r="AA29" s="2">
+        <v>1.8600705185765949</v>
+      </c>
+      <c r="AB29" s="2">
+        <v>-4.2691171479343808</v>
+      </c>
+      <c r="AC29" s="2">
+        <v>2.916666666666679</v>
+      </c>
+      <c r="AD29" s="2">
+        <v>42.438675687628802</v>
+      </c>
+      <c r="AE29" s="2">
+        <v>1.0321928106865239</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>39538</v>
       </c>
@@ -1921,8 +3427,63 @@
       <c r="O30" s="2">
         <v>97.552634908314204</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P30" s="1">
+        <v>39538</v>
+      </c>
+      <c r="Q30" s="2">
+        <f t="shared" si="0"/>
+        <v>-29.596098597888947</v>
+      </c>
+      <c r="R30" s="2">
+        <f t="shared" si="1"/>
+        <v>36.478754699122348</v>
+      </c>
+      <c r="S30" s="2">
+        <f t="shared" si="20"/>
+        <v>34.636690099019766</v>
+      </c>
+      <c r="T30" s="2">
+        <f t="shared" si="4"/>
+        <v>-25.054308989566938</v>
+      </c>
+      <c r="U30" s="2">
+        <f t="shared" ref="U30:W30" si="28">(G30-G26)/G26*100</f>
+        <v>-0.83919870059556179</v>
+      </c>
+      <c r="V30" s="2">
+        <f t="shared" si="28"/>
+        <v>-1.784822066167872</v>
+      </c>
+      <c r="W30" s="2">
+        <f t="shared" si="28"/>
+        <v>287.64449641409726</v>
+      </c>
+      <c r="X30" s="1">
+        <v>39538</v>
+      </c>
+      <c r="Y30" s="2">
+        <v>-1.7928910321619811</v>
+      </c>
+      <c r="Z30" s="2">
+        <v>1.7359416572209958</v>
+      </c>
+      <c r="AA30" s="2">
+        <v>6.1830121867499921</v>
+      </c>
+      <c r="AB30" s="2">
+        <v>4.4141075497575288</v>
+      </c>
+      <c r="AC30" s="2">
+        <v>11.83333333333305</v>
+      </c>
+      <c r="AD30" s="2">
+        <v>-4.3854699009523301</v>
+      </c>
+      <c r="AE30" s="2">
+        <v>0.58930031509186698</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>39629</v>
       </c>
@@ -1968,8 +3529,63 @@
       <c r="O31" s="2">
         <v>90.557335544421406</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P31" s="1">
+        <v>39629</v>
+      </c>
+      <c r="Q31" s="2">
+        <f t="shared" si="0"/>
+        <v>-38.309810613142439</v>
+      </c>
+      <c r="R31" s="2">
+        <f t="shared" si="1"/>
+        <v>36.81855533491597</v>
+      </c>
+      <c r="S31" s="2">
+        <f t="shared" si="20"/>
+        <v>27.894376466280946</v>
+      </c>
+      <c r="T31" s="2">
+        <f t="shared" si="4"/>
+        <v>-28.82585703732418</v>
+      </c>
+      <c r="U31" s="2">
+        <f t="shared" ref="U31:W31" si="29">(G31-G27)/G27*100</f>
+        <v>1.2465373961219015</v>
+      </c>
+      <c r="V31" s="2">
+        <f t="shared" si="29"/>
+        <v>-2.36361576242445</v>
+      </c>
+      <c r="W31" s="2">
+        <f t="shared" si="29"/>
+        <v>122.51830368767907</v>
+      </c>
+      <c r="X31" s="1">
+        <v>39629</v>
+      </c>
+      <c r="Y31" s="2">
+        <v>-4.1521433514811523</v>
+      </c>
+      <c r="Z31" s="2">
+        <v>3.7077571975066106</v>
+      </c>
+      <c r="AA31" s="2">
+        <v>3.4617979095731277</v>
+      </c>
+      <c r="AB31" s="2">
+        <v>5.0549254058431137</v>
+      </c>
+      <c r="AC31" s="2">
+        <v>4.0833333333333499</v>
+      </c>
+      <c r="AD31" s="2">
+        <v>-30.13698079277879</v>
+      </c>
+      <c r="AE31" s="2">
+        <v>2.0315818017517082</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>39721</v>
       </c>
@@ -2015,8 +3631,63 @@
       <c r="O32" s="2">
         <v>83.171260156164905</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P32" s="1">
+        <v>39721</v>
+      </c>
+      <c r="Q32" s="2">
+        <f t="shared" si="0"/>
+        <v>-41.645061620740066</v>
+      </c>
+      <c r="R32" s="2">
+        <f t="shared" si="1"/>
+        <v>38.019509919322864</v>
+      </c>
+      <c r="S32" s="2">
+        <f t="shared" si="20"/>
+        <v>34.456850773778051</v>
+      </c>
+      <c r="T32" s="2">
+        <f t="shared" si="4"/>
+        <v>-34.293326270361185</v>
+      </c>
+      <c r="U32" s="2">
+        <f t="shared" ref="U32:W32" si="30">(G32-G28)/G28*100</f>
+        <v>1.7101205494813552</v>
+      </c>
+      <c r="V32" s="2">
+        <f t="shared" si="30"/>
+        <v>-1.4885193096683482</v>
+      </c>
+      <c r="W32" s="2">
+        <f t="shared" si="30"/>
+        <v>94.416734775508345</v>
+      </c>
+      <c r="X32" s="1">
+        <v>39721</v>
+      </c>
+      <c r="Y32" s="2">
+        <v>-7.7340141719415278</v>
+      </c>
+      <c r="Z32" s="2">
+        <v>-2.2223823676950532</v>
+      </c>
+      <c r="AA32" s="2">
+        <v>4.2368272923133716</v>
+      </c>
+      <c r="AB32" s="2">
+        <v>2.938027343197064</v>
+      </c>
+      <c r="AC32" s="2">
+        <v>1.5000000000000571</v>
+      </c>
+      <c r="AD32" s="2">
+        <v>-17.103558080146058</v>
+      </c>
+      <c r="AE32" s="2">
+        <v>1.3581571981668179</v>
+      </c>
+    </row>
+    <row r="33" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>39813</v>
       </c>
@@ -2062,8 +3733,63 @@
       <c r="O33" s="2">
         <v>73.531930721461293</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P33" s="1">
+        <v>39813</v>
+      </c>
+      <c r="Q33" s="2">
+        <f t="shared" si="0"/>
+        <v>-45.692994691952968</v>
+      </c>
+      <c r="R33" s="2">
+        <f t="shared" si="1"/>
+        <v>-0.39987091330816921</v>
+      </c>
+      <c r="S33" s="2">
+        <f t="shared" si="20"/>
+        <v>-10.517992073505798</v>
+      </c>
+      <c r="T33" s="2">
+        <f t="shared" si="4"/>
+        <v>-39.884017938115171</v>
+      </c>
+      <c r="U33" s="2">
+        <f t="shared" ref="U33:W33" si="31">(G33-G29)/G29*100</f>
+        <v>-2.1241379310344914</v>
+      </c>
+      <c r="V33" s="2">
+        <f t="shared" si="31"/>
+        <v>-3.4444743070314239</v>
+      </c>
+      <c r="W33" s="2">
+        <f t="shared" si="31"/>
+        <v>44.990415372771388</v>
+      </c>
+      <c r="X33" s="1">
+        <v>39813</v>
+      </c>
+      <c r="Y33" s="2">
+        <v>1.368036488179825</v>
+      </c>
+      <c r="Z33" s="2">
+        <v>-3.6506240470686726</v>
+      </c>
+      <c r="AA33" s="2">
+        <v>4.9601880495376172</v>
+      </c>
+      <c r="AB33" s="2">
+        <v>-0.32051721471207378</v>
+      </c>
+      <c r="AC33" s="2">
+        <v>-26.500000000000064</v>
+      </c>
+      <c r="AD33" s="2">
+        <v>6.1315444803401533</v>
+      </c>
+      <c r="AE33" s="2">
+        <v>0.19967636752922319</v>
+      </c>
+    </row>
+    <row r="34" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>39903</v>
       </c>
@@ -2109,8 +3835,63 @@
       <c r="O34" s="2">
         <v>78.888093693304796</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P34" s="1">
+        <v>39903</v>
+      </c>
+      <c r="Q34" s="2">
+        <f t="shared" si="0"/>
+        <v>-37.384484501634937</v>
+      </c>
+      <c r="R34" s="2">
+        <f t="shared" si="1"/>
+        <v>-11.504276159816342</v>
+      </c>
+      <c r="S34" s="2">
+        <f t="shared" si="20"/>
+        <v>-1.4962485515152186</v>
+      </c>
+      <c r="T34" s="2">
+        <f t="shared" si="4"/>
+        <v>-42.637706309175336</v>
+      </c>
+      <c r="U34" s="2">
+        <f t="shared" ref="U34:W34" si="32">(G34-G30)/G30*100</f>
+        <v>0.43680043680044689</v>
+      </c>
+      <c r="V34" s="2">
+        <f t="shared" si="32"/>
+        <v>0.3544763229010453</v>
+      </c>
+      <c r="W34" s="2">
+        <f t="shared" si="32"/>
+        <v>8.3527513341536874</v>
+      </c>
+      <c r="X34" s="1">
+        <v>39903</v>
+      </c>
+      <c r="Y34" s="2">
+        <v>5.3467751097606042</v>
+      </c>
+      <c r="Z34" s="2">
+        <v>3.153299444814639</v>
+      </c>
+      <c r="AA34" s="2">
+        <v>-0.75780650756825396</v>
+      </c>
+      <c r="AB34" s="2">
+        <v>-6.7477651662709026E-2</v>
+      </c>
+      <c r="AC34" s="2">
+        <v>-0.75000000000002842</v>
+      </c>
+      <c r="AD34" s="2">
+        <v>19.171304979395249</v>
+      </c>
+      <c r="AE34" s="2">
+        <v>-0.52450378314356882</v>
+      </c>
+    </row>
+    <row r="35" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>39994</v>
       </c>
@@ -2156,8 +3937,63 @@
       <c r="O35" s="2">
         <v>82.917563673440597</v>
       </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P35" s="1">
+        <v>39994</v>
+      </c>
+      <c r="Q35" s="2">
+        <f t="shared" si="0"/>
+        <v>-56.869353171012136</v>
+      </c>
+      <c r="R35" s="2">
+        <f t="shared" si="1"/>
+        <v>-37.305412340272873</v>
+      </c>
+      <c r="S35" s="2">
+        <f t="shared" si="20"/>
+        <v>-8.4887746201344747</v>
+      </c>
+      <c r="T35" s="2">
+        <f t="shared" si="4"/>
+        <v>-79.391634980988584</v>
+      </c>
+      <c r="U35" s="2">
+        <f t="shared" ref="U35:W35" si="33">(G35-G31)/G31*100</f>
+        <v>5.8823529411764559</v>
+      </c>
+      <c r="V35" s="2">
+        <f t="shared" si="33"/>
+        <v>1.4930624121832119</v>
+      </c>
+      <c r="W35" s="2">
+        <f t="shared" si="33"/>
+        <v>-33.081870095472517</v>
+      </c>
+      <c r="X35" s="1">
+        <v>39994</v>
+      </c>
+      <c r="Y35" s="2">
+        <v>15.432414205198219</v>
+      </c>
+      <c r="Z35" s="2">
+        <v>-0.42438887155886174</v>
+      </c>
+      <c r="AA35" s="2">
+        <v>17.515664049929711</v>
+      </c>
+      <c r="AB35" s="2">
+        <v>3.142829604363552</v>
+      </c>
+      <c r="AC35" s="2">
+        <v>24.416666666666838</v>
+      </c>
+      <c r="AD35" s="2">
+        <v>-1.739828186715386</v>
+      </c>
+      <c r="AE35" s="2">
+        <v>-1.7409901974237481</v>
+      </c>
+    </row>
+    <row r="36" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>40086</v>
       </c>
@@ -2203,8 +4039,63 @@
       <c r="O36" s="2">
         <v>89.769565704309102</v>
       </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P36" s="1">
+        <v>40086</v>
+      </c>
+      <c r="Q36" s="2">
+        <f t="shared" si="0"/>
+        <v>-88.29895528661983</v>
+      </c>
+      <c r="R36" s="2">
+        <f t="shared" si="1"/>
+        <v>-39.527496061134691</v>
+      </c>
+      <c r="S36" s="2">
+        <f t="shared" si="20"/>
+        <v>-38.780852029123039</v>
+      </c>
+      <c r="T36" s="2">
+        <f t="shared" si="4"/>
+        <v>-80.762801285167242</v>
+      </c>
+      <c r="U36" s="2">
+        <f t="shared" ref="U36:W36" si="34">(G36-G32)/G32*100</f>
+        <v>12.734288864388086</v>
+      </c>
+      <c r="V36" s="2">
+        <f t="shared" si="34"/>
+        <v>2.063382081240837</v>
+      </c>
+      <c r="W36" s="2">
+        <f t="shared" si="34"/>
+        <v>-40.569206834077754</v>
+      </c>
+      <c r="X36" s="1">
+        <v>40086</v>
+      </c>
+      <c r="Y36" s="2">
+        <v>4.2217422507982878</v>
+      </c>
+      <c r="Z36" s="2">
+        <v>8.336645633715051</v>
+      </c>
+      <c r="AA36" s="2">
+        <v>7.7847395777465387</v>
+      </c>
+      <c r="AB36" s="2">
+        <v>7.2914440539309915</v>
+      </c>
+      <c r="AC36" s="2">
+        <v>56.166666666666565</v>
+      </c>
+      <c r="AD36" s="2">
+        <v>0.25372753281794758</v>
+      </c>
+      <c r="AE36" s="2">
+        <v>-1.5500156037732959</v>
+      </c>
+    </row>
+    <row r="37" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>40178</v>
       </c>
@@ -2250,8 +4141,63 @@
       <c r="O37" s="2">
         <v>98.600436516970902</v>
       </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P37" s="1">
+        <v>40178</v>
+      </c>
+      <c r="Q37" s="2">
+        <f t="shared" si="0"/>
+        <v>-82.031241734172951</v>
+      </c>
+      <c r="R37" s="2">
+        <f t="shared" si="1"/>
+        <v>-39.822031495485142</v>
+      </c>
+      <c r="S37" s="2">
+        <f t="shared" si="20"/>
+        <v>-33.577649050965661</v>
+      </c>
+      <c r="T37" s="2">
+        <f t="shared" si="4"/>
+        <v>-89.222741993522845</v>
+      </c>
+      <c r="U37" s="2">
+        <f t="shared" ref="U37:W37" si="35">(G37-G33)/G33*100</f>
+        <v>14.064261555806093</v>
+      </c>
+      <c r="V37" s="2">
+        <f t="shared" si="35"/>
+        <v>0.85094298343313568</v>
+      </c>
+      <c r="W37" s="2">
+        <f t="shared" si="35"/>
+        <v>-27.281244762389921</v>
+      </c>
+      <c r="X37" s="1">
+        <v>40178</v>
+      </c>
+      <c r="Y37" s="2">
+        <v>2.4725314304635648</v>
+      </c>
+      <c r="Z37" s="2">
+        <v>1.4502871154456529</v>
+      </c>
+      <c r="AA37" s="2">
+        <v>3.4445750344011197</v>
+      </c>
+      <c r="AB37" s="2">
+        <v>1.704964867995876</v>
+      </c>
+      <c r="AC37" s="2">
+        <v>6.25</v>
+      </c>
+      <c r="AD37" s="2">
+        <v>-5.2463402783985202</v>
+      </c>
+      <c r="AE37" s="2">
+        <v>-1.0582778055807529</v>
+      </c>
+    </row>
+    <row r="38" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>40268</v>
       </c>
@@ -2297,8 +4243,63 @@
       <c r="O38" s="2">
         <v>98.8751948655853</v>
       </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P38" s="1">
+        <v>40268</v>
+      </c>
+      <c r="Q38" s="2">
+        <f t="shared" si="0"/>
+        <v>-75.221566668756907</v>
+      </c>
+      <c r="R38" s="2">
+        <f t="shared" si="1"/>
+        <v>-37.001629779727295</v>
+      </c>
+      <c r="S38" s="2">
+        <f t="shared" si="20"/>
+        <v>-23.788604158795632</v>
+      </c>
+      <c r="T38" s="2">
+        <f t="shared" si="4"/>
+        <v>-92.551653064277531</v>
+      </c>
+      <c r="U38" s="2">
+        <f t="shared" ref="U38:W38" si="36">(G38-G34)/G34*100</f>
+        <v>11.606414786626804</v>
+      </c>
+      <c r="V38" s="2">
+        <f t="shared" si="36"/>
+        <v>1.2705696596772182</v>
+      </c>
+      <c r="W38" s="2">
+        <f t="shared" si="36"/>
+        <v>31.060172921343543</v>
+      </c>
+      <c r="X38" s="1">
+        <v>40268</v>
+      </c>
+      <c r="Y38" s="2">
+        <v>5.6852075585482336</v>
+      </c>
+      <c r="Z38" s="2">
+        <v>-0.41389856307447737</v>
+      </c>
+      <c r="AA38" s="2">
+        <v>1.860070518576604</v>
+      </c>
+      <c r="AB38" s="2">
+        <v>-1.103117208342719</v>
+      </c>
+      <c r="AC38" s="2">
+        <v>-4.9166666666666359</v>
+      </c>
+      <c r="AD38" s="2">
+        <v>19.124003465677109</v>
+      </c>
+      <c r="AE38" s="2">
+        <v>3.735733987161701</v>
+      </c>
+    </row>
+    <row r="39" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>40359</v>
       </c>
@@ -2344,8 +4345,63 @@
       <c r="O39" s="2">
         <v>101.725991957807</v>
       </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P39" s="1">
+        <v>40359</v>
+      </c>
+      <c r="Q39" s="2">
+        <f t="shared" si="0"/>
+        <v>-69.490313406029458</v>
+      </c>
+      <c r="R39" s="2">
+        <f t="shared" si="1"/>
+        <v>-17.268717477316269</v>
+      </c>
+      <c r="S39" s="2">
+        <f t="shared" si="20"/>
+        <v>-17.241523128459832</v>
+      </c>
+      <c r="T39" s="2">
+        <f t="shared" si="4"/>
+        <v>-105.85419367707192</v>
+      </c>
+      <c r="U39" s="2">
+        <f t="shared" ref="U39:W39" si="37">(G39-G35)/G35*100</f>
+        <v>9.5607235142118796</v>
+      </c>
+      <c r="V39" s="2">
+        <f t="shared" si="37"/>
+        <v>0.96611996753409779</v>
+      </c>
+      <c r="W39" s="2">
+        <f t="shared" si="37"/>
+        <v>61.930779945130823</v>
+      </c>
+      <c r="X39" s="1">
+        <v>40359</v>
+      </c>
+      <c r="Y39" s="2">
+        <v>7.6792125375345188</v>
+      </c>
+      <c r="Z39" s="2">
+        <v>-7.0290123242490736</v>
+      </c>
+      <c r="AA39" s="2">
+        <v>2.2906423978767463</v>
+      </c>
+      <c r="AB39" s="2">
+        <v>-5.4637932112616188</v>
+      </c>
+      <c r="AC39" s="2">
+        <v>33.333333333333208</v>
+      </c>
+      <c r="AD39" s="2">
+        <v>0.20391830606376971</v>
+      </c>
+      <c r="AE39" s="2">
+        <v>0.21738888769520409</v>
+      </c>
+    </row>
+    <row r="40" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>40451</v>
       </c>
@@ -2391,8 +4447,63 @@
       <c r="O40" s="2">
         <v>106.02223561039401</v>
       </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P40" s="1">
+        <v>40451</v>
+      </c>
+      <c r="Q40" s="2">
+        <f t="shared" si="0"/>
+        <v>-786.35741981718979</v>
+      </c>
+      <c r="R40" s="2">
+        <f t="shared" si="1"/>
+        <v>16.840035993009643</v>
+      </c>
+      <c r="S40" s="2">
+        <f t="shared" si="20"/>
+        <v>-55.771824788539512</v>
+      </c>
+      <c r="T40" s="2">
+        <f t="shared" si="4"/>
+        <v>-126.00147910760511</v>
+      </c>
+      <c r="U40" s="2">
+        <f t="shared" ref="U40:W40" si="38">(G40-G36)/G36*100</f>
+        <v>1.8826405867970737</v>
+      </c>
+      <c r="V40" s="2">
+        <f t="shared" si="38"/>
+        <v>0.39121790304613496</v>
+      </c>
+      <c r="W40" s="2">
+        <f t="shared" si="38"/>
+        <v>123.21787239216413</v>
+      </c>
+      <c r="X40" s="1">
+        <v>40451</v>
+      </c>
+      <c r="Y40" s="2">
+        <v>-11.922915015381321</v>
+      </c>
+      <c r="Z40" s="2">
+        <v>10.31469799700594</v>
+      </c>
+      <c r="AA40" s="2">
+        <v>1.29171563790042</v>
+      </c>
+      <c r="AB40" s="2">
+        <v>10.348947992358799</v>
+      </c>
+      <c r="AC40" s="2">
+        <v>1.9999999999999569</v>
+      </c>
+      <c r="AD40" s="2">
+        <v>-15.53824653147421</v>
+      </c>
+      <c r="AE40" s="2">
+        <v>2.056568336221865</v>
+      </c>
+    </row>
+    <row r="41" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>40543</v>
       </c>
@@ -2438,8 +4549,63 @@
       <c r="O41" s="2">
         <v>108.944142601434</v>
       </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P41" s="1">
+        <v>40543</v>
+      </c>
+      <c r="Q41" s="2">
+        <f t="shared" si="0"/>
+        <v>-727.94965045170647</v>
+      </c>
+      <c r="R41" s="2">
+        <f t="shared" si="1"/>
+        <v>39.605862082863631</v>
+      </c>
+      <c r="S41" s="2">
+        <f t="shared" si="20"/>
+        <v>-78.295759363573225</v>
+      </c>
+      <c r="T41" s="2">
+        <f t="shared" si="4"/>
+        <v>-221.21484525491212</v>
+      </c>
+      <c r="U41" s="2">
+        <f t="shared" ref="U41:W41" si="39">(G41-G37)/G37*100</f>
+        <v>2.07561156412158</v>
+      </c>
+      <c r="V41" s="2">
+        <f t="shared" si="39"/>
+        <v>2.0299416324480877</v>
+      </c>
+      <c r="W41" s="2">
+        <f t="shared" si="39"/>
+        <v>97.340449959744674</v>
+      </c>
+      <c r="X41" s="1">
+        <v>40543</v>
+      </c>
+      <c r="Y41" s="2">
+        <v>-8.1088225763330417</v>
+      </c>
+      <c r="Z41" s="2">
+        <v>9.9130583713659632</v>
+      </c>
+      <c r="AA41" s="2">
+        <v>1.5328358903085</v>
+      </c>
+      <c r="AB41" s="2">
+        <v>9.0728644186487184</v>
+      </c>
+      <c r="AC41" s="2">
+        <v>-10.99999999999994</v>
+      </c>
+      <c r="AD41" s="2">
+        <v>20.727528028886809</v>
+      </c>
+      <c r="AE41" s="2">
+        <v>1.49794629070422</v>
+      </c>
+    </row>
+    <row r="42" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40633</v>
       </c>
@@ -2485,8 +4651,63 @@
       <c r="O42" s="2">
         <v>114.68349326733301</v>
       </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P42" s="1">
+        <v>40633</v>
+      </c>
+      <c r="Q42" s="2">
+        <f t="shared" si="0"/>
+        <v>-735.87450042840123</v>
+      </c>
+      <c r="R42" s="2">
+        <f t="shared" si="1"/>
+        <v>67.350679651913012</v>
+      </c>
+      <c r="S42" s="2">
+        <f t="shared" si="20"/>
+        <v>-77.433000162952382</v>
+      </c>
+      <c r="T42" s="2">
+        <f t="shared" si="4"/>
+        <v>-438.78598527114502</v>
+      </c>
+      <c r="U42" s="2">
+        <f t="shared" ref="U42:W42" si="40">(G42-G38)/G38*100</f>
+        <v>0.292255236239643</v>
+      </c>
+      <c r="V42" s="2">
+        <f t="shared" si="40"/>
+        <v>-0.34473369142801369</v>
+      </c>
+      <c r="W42" s="2">
+        <f t="shared" si="40"/>
+        <v>23.950775267796381</v>
+      </c>
+      <c r="X42" s="1">
+        <v>40633</v>
+      </c>
+      <c r="Y42" s="2">
+        <v>-7.1715289288630801</v>
+      </c>
+      <c r="Z42" s="2">
+        <v>1.5234368579855682</v>
+      </c>
+      <c r="AA42" s="2">
+        <v>2.58343127580084</v>
+      </c>
+      <c r="AB42" s="2">
+        <v>4.252233858667986</v>
+      </c>
+      <c r="AC42" s="2">
+        <v>-4.3333333333333002</v>
+      </c>
+      <c r="AD42" s="2">
+        <v>-5.3935632364696184</v>
+      </c>
+      <c r="AE42" s="2">
+        <v>0.24951619857681001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>40724</v>
       </c>
@@ -2532,8 +4753,63 @@
       <c r="O43" s="2">
         <v>111.523943172743</v>
       </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P43" s="1">
+        <v>40724</v>
+      </c>
+      <c r="Q43" s="2">
+        <f t="shared" si="0"/>
+        <v>-999.12913181439865</v>
+      </c>
+      <c r="R43" s="2">
+        <f t="shared" si="1"/>
+        <v>58.417586336729407</v>
+      </c>
+      <c r="S43" s="2">
+        <f t="shared" si="20"/>
+        <v>-79.600885458198505</v>
+      </c>
+      <c r="T43" s="2">
+        <f t="shared" si="4"/>
+        <v>1504.3441226575765</v>
+      </c>
+      <c r="U43" s="2">
+        <f t="shared" ref="U43:W43" si="41">(G43-G39)/G39*100</f>
+        <v>-3.1132075471698077</v>
+      </c>
+      <c r="V43" s="2">
+        <f t="shared" si="41"/>
+        <v>1.3226560623770534</v>
+      </c>
+      <c r="W43" s="2">
+        <f t="shared" si="41"/>
+        <v>20.456167471235378</v>
+      </c>
+      <c r="X43" s="1">
+        <v>40724</v>
+      </c>
+      <c r="Y43" s="2">
+        <v>-0.87031068479661577</v>
+      </c>
+      <c r="Z43" s="2">
+        <v>-2.0638656508522208</v>
+      </c>
+      <c r="AA43" s="2">
+        <v>0.68891500688022234</v>
+      </c>
+      <c r="AB43" s="2">
+        <v>-0.65754422608518837</v>
+      </c>
+      <c r="AC43" s="2">
+        <v>2.2499999999999081</v>
+      </c>
+      <c r="AD43" s="2">
+        <v>-0.31686789779860192</v>
+      </c>
+      <c r="AE43" s="2">
+        <v>-0.85828394836304156</v>
+      </c>
+    </row>
+    <row r="44" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>40816</v>
       </c>
@@ -2579,8 +4855,63 @@
       <c r="O44" s="2">
         <v>113.95342031531</v>
       </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P44" s="1">
+        <v>40816</v>
+      </c>
+      <c r="Q44" s="2">
+        <f t="shared" si="0"/>
+        <v>106.72603204521604</v>
+      </c>
+      <c r="R44" s="2">
+        <f t="shared" si="1"/>
+        <v>11.189978235670681</v>
+      </c>
+      <c r="S44" s="2">
+        <f t="shared" si="20"/>
+        <v>-104.31580086596659</v>
+      </c>
+      <c r="T44" s="2">
+        <f t="shared" si="4"/>
+        <v>573.26380658923892</v>
+      </c>
+      <c r="U44" s="2">
+        <f t="shared" ref="U44:W44" si="42">(G44-G40)/G40*100</f>
+        <v>-2.8557715382769366</v>
+      </c>
+      <c r="V44" s="2">
+        <f t="shared" si="42"/>
+        <v>2.4054605337773123</v>
+      </c>
+      <c r="W44" s="2">
+        <f t="shared" si="42"/>
+        <v>-1.8527802113427188</v>
+      </c>
+      <c r="X44" s="1">
+        <v>40816</v>
+      </c>
+      <c r="Y44" s="2">
+        <v>4.4015662121083432</v>
+      </c>
+      <c r="Z44" s="2">
+        <v>3.4388743824108738</v>
+      </c>
+      <c r="AA44" s="2">
+        <v>3.6856952868091994</v>
+      </c>
+      <c r="AB44" s="2">
+        <v>2.425896533646271</v>
+      </c>
+      <c r="AC44" s="2">
+        <v>-12.249999999999869</v>
+      </c>
+      <c r="AD44" s="2">
+        <v>17.440351305407152</v>
+      </c>
+      <c r="AE44" s="2">
+        <v>0.90474884141667999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>40908</v>
       </c>
@@ -2626,8 +4957,63 @@
       <c r="O45" s="2">
         <v>107.609958305135</v>
       </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P45" s="1">
+        <v>40908</v>
+      </c>
+      <c r="Q45" s="2">
+        <f t="shared" si="0"/>
+        <v>72.169944070636177</v>
+      </c>
+      <c r="R45" s="2">
+        <f t="shared" si="1"/>
+        <v>13.120248647396753</v>
+      </c>
+      <c r="S45" s="2">
+        <f t="shared" si="20"/>
+        <v>-163.34508587161244</v>
+      </c>
+      <c r="T45" s="2">
+        <f t="shared" si="4"/>
+        <v>245.17427693611609</v>
+      </c>
+      <c r="U45" s="2">
+        <f t="shared" ref="U45:W45" si="43">(G45-G41)/G41*100</f>
+        <v>-1.5976761074800463</v>
+      </c>
+      <c r="V45" s="2">
+        <f t="shared" si="43"/>
+        <v>-0.19335791394579765</v>
+      </c>
+      <c r="W45" s="2">
+        <f t="shared" si="43"/>
+        <v>-19.74599182180798</v>
+      </c>
+      <c r="X45" s="1">
+        <v>40908</v>
+      </c>
+      <c r="Y45" s="2">
+        <v>-6.1334804938805609</v>
+      </c>
+      <c r="Z45" s="2">
+        <v>0.96761420935085607</v>
+      </c>
+      <c r="AA45" s="2">
+        <v>2.9278887792409591</v>
+      </c>
+      <c r="AB45" s="2">
+        <v>3.7656234346673765</v>
+      </c>
+      <c r="AC45" s="2">
+        <v>-7.0000000000000284</v>
+      </c>
+      <c r="AD45" s="2">
+        <v>-6.0719564382270619</v>
+      </c>
+      <c r="AE45" s="2">
+        <v>-2.2488860292826161</v>
+      </c>
+    </row>
+    <row r="46" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>40999</v>
       </c>
@@ -2673,8 +5059,63 @@
       <c r="O46" s="2">
         <v>109.67992029739899</v>
       </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P46" s="1">
+        <v>40999</v>
+      </c>
+      <c r="Q46" s="2">
+        <f t="shared" si="0"/>
+        <v>72.287957357443418</v>
+      </c>
+      <c r="R46" s="2">
+        <f t="shared" si="1"/>
+        <v>-1.8312481864274259</v>
+      </c>
+      <c r="S46" s="2">
+        <f t="shared" si="20"/>
+        <v>-326.6514885739789</v>
+      </c>
+      <c r="T46" s="2">
+        <f t="shared" si="4"/>
+        <v>135.24800737764306</v>
+      </c>
+      <c r="U46" s="2">
+        <f t="shared" ref="U46:W46" si="44">(G46-G42)/G42*100</f>
+        <v>0.12141816415735104</v>
+      </c>
+      <c r="V46" s="2">
+        <f t="shared" si="44"/>
+        <v>0.90149575481051347</v>
+      </c>
+      <c r="W46" s="2">
+        <f t="shared" si="44"/>
+        <v>-6.6603227423365841</v>
+      </c>
+      <c r="X46" s="1">
+        <v>40999</v>
+      </c>
+      <c r="Y46" s="2">
+        <v>-5.9177097955087632E-2</v>
+      </c>
+      <c r="Z46" s="2">
+        <v>7.057287788676728</v>
+      </c>
+      <c r="AA46" s="2">
+        <v>1.7222875172001609E-2</v>
+      </c>
+      <c r="AB46" s="2">
+        <v>4.2492054998541917</v>
+      </c>
+      <c r="AC46" s="2">
+        <v>-12.083333333333361</v>
+      </c>
+      <c r="AD46" s="2">
+        <v>-2.4261444341018432</v>
+      </c>
+      <c r="AE46" s="2">
+        <v>-9.9142172283229968E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>41090</v>
       </c>
@@ -2720,8 +5161,63 @@
       <c r="O47" s="2">
         <v>104.515305336772</v>
       </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P47" s="1">
+        <v>41090</v>
+      </c>
+      <c r="Q47" s="2">
+        <f t="shared" si="0"/>
+        <v>88.012469903993789</v>
+      </c>
+      <c r="R47" s="2">
+        <f t="shared" si="1"/>
+        <v>-1.3119812591057349</v>
+      </c>
+      <c r="S47" s="2">
+        <f t="shared" si="20"/>
+        <v>-408.62128386572908</v>
+      </c>
+      <c r="T47" s="2">
+        <f t="shared" si="4"/>
+        <v>144.57658614281928</v>
+      </c>
+      <c r="U47" s="2">
+        <f t="shared" ref="U47:W47" si="45">(G47-G43)/G43*100</f>
+        <v>7.1324245374878412</v>
+      </c>
+      <c r="V47" s="2">
+        <f t="shared" si="45"/>
+        <v>-6.2430536773198694E-2</v>
+      </c>
+      <c r="W47" s="2">
+        <f t="shared" si="45"/>
+        <v>8.7085881556267104</v>
+      </c>
+      <c r="X47" s="1">
+        <v>41090</v>
+      </c>
+      <c r="Y47" s="2">
+        <v>1.278320825093693</v>
+      </c>
+      <c r="Z47" s="2">
+        <v>4.3290574429416688</v>
+      </c>
+      <c r="AA47" s="2">
+        <v>2.566208400628839</v>
+      </c>
+      <c r="AB47" s="2">
+        <v>3.3837837247946978</v>
+      </c>
+      <c r="AC47" s="2">
+        <v>72.58333333333357</v>
+      </c>
+      <c r="AD47" s="2">
+        <v>-1.19986840861975</v>
+      </c>
+      <c r="AE47" s="2">
+        <v>1.595551599164843</v>
+      </c>
+    </row>
+    <row r="48" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>41182</v>
       </c>
@@ -2767,8 +5263,63 @@
       <c r="O48" s="2">
         <v>109.418441972929</v>
       </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P48" s="1">
+        <v>41182</v>
+      </c>
+      <c r="Q48" s="2">
+        <f t="shared" si="0"/>
+        <v>67.39449141868289</v>
+      </c>
+      <c r="R48" s="2">
+        <f t="shared" si="1"/>
+        <v>-6.5658703982075224</v>
+      </c>
+      <c r="S48" s="2">
+        <f t="shared" si="20"/>
+        <v>4952.942784918353</v>
+      </c>
+      <c r="T48" s="2">
+        <f t="shared" si="4"/>
+        <v>100.46118641084311</v>
+      </c>
+      <c r="U48" s="2">
+        <f t="shared" ref="U48:W48" si="46">(G48-G44)/G44*100</f>
+        <v>2.3715415019762731</v>
+      </c>
+      <c r="V48" s="2">
+        <f t="shared" si="46"/>
+        <v>-0.71237456554910161</v>
+      </c>
+      <c r="W48" s="2">
+        <f t="shared" si="46"/>
+        <v>7.232642245679652</v>
+      </c>
+      <c r="X48" s="1">
+        <v>41182</v>
+      </c>
+      <c r="Y48" s="2">
+        <v>4.6676576215159642</v>
+      </c>
+      <c r="Z48" s="2">
+        <v>3.5740418594756465</v>
+      </c>
+      <c r="AA48" s="2">
+        <v>4.7018449219575258</v>
+      </c>
+      <c r="AB48" s="2">
+        <v>2.8929576154935521</v>
+      </c>
+      <c r="AC48" s="2">
+        <v>-17.166666666666693</v>
+      </c>
+      <c r="AD48" s="2">
+        <v>4.4192614001076443E-2</v>
+      </c>
+      <c r="AE48" s="2">
+        <v>0.24776216889781111</v>
+      </c>
+    </row>
+    <row r="49" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>41274</v>
       </c>
@@ -2814,8 +5365,63 @@
       <c r="O49" s="2">
         <v>110.524510586722</v>
       </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P49" s="1">
+        <v>41274</v>
+      </c>
+      <c r="Q49" s="2">
+        <f t="shared" si="0"/>
+        <v>59.433088248077816</v>
+      </c>
+      <c r="R49" s="2">
+        <f t="shared" si="1"/>
+        <v>-14.062522032655872</v>
+      </c>
+      <c r="S49" s="2">
+        <f t="shared" si="20"/>
+        <v>691.12526642632542</v>
+      </c>
+      <c r="T49" s="2">
+        <f t="shared" si="4"/>
+        <v>100.40207482888796</v>
+      </c>
+      <c r="U49" s="2">
+        <f t="shared" ref="U49:W49" si="47">(G49-G45)/G45*100</f>
+        <v>1.2054120541205462</v>
+      </c>
+      <c r="V49" s="2">
+        <f t="shared" si="47"/>
+        <v>0.35607849385072005</v>
+      </c>
+      <c r="W49" s="2">
+        <f t="shared" si="47"/>
+        <v>38.572820944512252</v>
+      </c>
+      <c r="X49" s="1">
+        <v>41274</v>
+      </c>
+      <c r="Y49" s="2">
+        <v>-1.604858537330867</v>
+      </c>
+      <c r="Z49" s="2">
+        <v>4.4229641452408428</v>
+      </c>
+      <c r="AA49" s="2">
+        <v>3.7890325378412295</v>
+      </c>
+      <c r="AB49" s="2">
+        <v>4.8674754572871954</v>
+      </c>
+      <c r="AC49" s="2">
+        <v>-38.833333333333357</v>
+      </c>
+      <c r="AD49" s="2">
+        <v>4.6348419916421344</v>
+      </c>
+      <c r="AE49" s="2">
+        <v>0.57247706247754593</v>
+      </c>
+    </row>
+    <row r="50" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>41364</v>
       </c>
@@ -2861,8 +5467,63 @@
       <c r="O50" s="2">
         <v>106.634539952892</v>
       </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P50" s="1">
+        <v>41364</v>
+      </c>
+      <c r="Q50" s="2">
+        <f t="shared" si="0"/>
+        <v>44.65639386706227</v>
+      </c>
+      <c r="R50" s="2">
+        <f t="shared" si="1"/>
+        <v>-20.297335890373333</v>
+      </c>
+      <c r="S50" s="2">
+        <f t="shared" si="20"/>
+        <v>154.02981926825859</v>
+      </c>
+      <c r="T50" s="2">
+        <f t="shared" si="4"/>
+        <v>106.45703245316835</v>
+      </c>
+      <c r="U50" s="2">
+        <f t="shared" ref="U50:W50" si="48">(G50-G46)/G46*100</f>
+        <v>3.395585738539912</v>
+      </c>
+      <c r="V50" s="2">
+        <f t="shared" si="48"/>
+        <v>-0.20881809683585781</v>
+      </c>
+      <c r="W50" s="2">
+        <f t="shared" si="48"/>
+        <v>30.082622946238359</v>
+      </c>
+      <c r="X50" s="1">
+        <v>41364</v>
+      </c>
+      <c r="Y50" s="2">
+        <v>4.5935934210353357</v>
+      </c>
+      <c r="Z50" s="2">
+        <v>3.0076516522658081</v>
+      </c>
+      <c r="AA50" s="2">
+        <v>3.73736391232522</v>
+      </c>
+      <c r="AB50" s="2">
+        <v>2.1338143588152891</v>
+      </c>
+      <c r="AC50" s="2">
+        <v>14.50000000000014</v>
+      </c>
+      <c r="AD50" s="2">
+        <v>-0.23003781822626479</v>
+      </c>
+      <c r="AE50" s="2">
+        <v>2.1349105526930359</v>
+      </c>
+    </row>
+    <row r="51" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>41455</v>
       </c>
@@ -2908,8 +5569,63 @@
       <c r="O51" s="2">
         <v>98.735738698444607</v>
       </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P51" s="1">
+        <v>41455</v>
+      </c>
+      <c r="Q51" s="2">
+        <f t="shared" si="0"/>
+        <v>43.337135972268172</v>
+      </c>
+      <c r="R51" s="2">
+        <f t="shared" si="1"/>
+        <v>-23.080793410880194</v>
+      </c>
+      <c r="S51" s="2">
+        <f t="shared" si="20"/>
+        <v>146.66629777367802</v>
+      </c>
+      <c r="T51" s="2">
+        <f t="shared" si="4"/>
+        <v>73.844049841531714</v>
+      </c>
+      <c r="U51" s="2">
+        <f t="shared" ref="U51:W51" si="49">(G51-G47)/G47*100</f>
+        <v>-0.99977277891389416</v>
+      </c>
+      <c r="V51" s="2">
+        <f t="shared" si="49"/>
+        <v>-0.68670287770147775</v>
+      </c>
+      <c r="W51" s="2">
+        <f t="shared" si="49"/>
+        <v>5.1818960283817059</v>
+      </c>
+      <c r="X51" s="1">
+        <v>41455</v>
+      </c>
+      <c r="Y51" s="2">
+        <v>3.7825099979474808</v>
+      </c>
+      <c r="Z51" s="2">
+        <v>8.4601028752076974</v>
+      </c>
+      <c r="AA51" s="2">
+        <v>2.6350999013168512</v>
+      </c>
+      <c r="AB51" s="2">
+        <v>5.1350251942373193</v>
+      </c>
+      <c r="AC51" s="2">
+        <v>42.083333333333428</v>
+      </c>
+      <c r="AD51" s="2">
+        <v>-10.562215896267389</v>
+      </c>
+      <c r="AE51" s="2">
+        <v>-0.59820975408131005</v>
+      </c>
+    </row>
+    <row r="52" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>41547</v>
       </c>
@@ -2955,8 +5671,63 @@
       <c r="O52" s="2">
         <v>102.162761136882</v>
       </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P52" s="1">
+        <v>41547</v>
+      </c>
+      <c r="Q52" s="2">
+        <f t="shared" si="0"/>
+        <v>29.351085478483469</v>
+      </c>
+      <c r="R52" s="2">
+        <f t="shared" si="1"/>
+        <v>-25.271738029105308</v>
+      </c>
+      <c r="S52" s="2">
+        <f t="shared" si="20"/>
+        <v>82.282895970997103</v>
+      </c>
+      <c r="T52" s="2">
+        <f t="shared" si="4"/>
+        <v>54.393143780404309</v>
+      </c>
+      <c r="U52" s="2">
+        <f t="shared" ref="U52:W52" si="50">(G52-G48)/G48*100</f>
+        <v>1.0859073359073386</v>
+      </c>
+      <c r="V52" s="2">
+        <f t="shared" si="50"/>
+        <v>-0.40687192251156667</v>
+      </c>
+      <c r="W52" s="2">
+        <f t="shared" si="50"/>
+        <v>-3.7242252214788407</v>
+      </c>
+      <c r="X52" s="1">
+        <v>41547</v>
+      </c>
+      <c r="Y52" s="2">
+        <v>4.5414424254122121</v>
+      </c>
+      <c r="Z52" s="2">
+        <v>3.1344894876591201</v>
+      </c>
+      <c r="AA52" s="2">
+        <v>3.3067920330250735</v>
+      </c>
+      <c r="AB52" s="2">
+        <v>2.0278780403915291</v>
+      </c>
+      <c r="AC52" s="2">
+        <v>-13.000000000000082</v>
+      </c>
+      <c r="AD52" s="2">
+        <v>1.053494826235237</v>
+      </c>
+      <c r="AE52" s="2">
+        <v>-0.96300300771160607</v>
+      </c>
+    </row>
+    <row r="53" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>41639</v>
       </c>
@@ -3002,8 +5773,63 @@
       <c r="O53" s="2">
         <v>97.5841744318015</v>
       </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P53" s="1">
+        <v>41639</v>
+      </c>
+      <c r="Q53" s="2">
+        <f t="shared" si="0"/>
+        <v>15.619383992514132</v>
+      </c>
+      <c r="R53" s="2">
+        <f t="shared" si="1"/>
+        <v>-28.792339896216131</v>
+      </c>
+      <c r="S53" s="2">
+        <f t="shared" si="20"/>
+        <v>41.767876357915277</v>
+      </c>
+      <c r="T53" s="2">
+        <f t="shared" si="4"/>
+        <v>42.771813211217115</v>
+      </c>
+      <c r="U53" s="2">
+        <f t="shared" ref="U53:W53" si="51">(G53-G49)/G49*100</f>
+        <v>-0.26737967914437505</v>
+      </c>
+      <c r="V53" s="2">
+        <f t="shared" si="51"/>
+        <v>-0.51900702916819552</v>
+      </c>
+      <c r="W53" s="2">
+        <f t="shared" si="51"/>
+        <v>-20.516379710424097</v>
+      </c>
+      <c r="X53" s="1">
+        <v>41639</v>
+      </c>
+      <c r="Y53" s="2">
+        <v>0.82505352167906443</v>
+      </c>
+      <c r="Z53" s="2">
+        <v>-2.541351516669077</v>
+      </c>
+      <c r="AA53" s="2">
+        <v>2.3939796489087732</v>
+      </c>
+      <c r="AB53" s="2">
+        <v>-0.6706729075977913</v>
+      </c>
+      <c r="AC53" s="2">
+        <v>-36.833333333333229</v>
+      </c>
+      <c r="AD53" s="2">
+        <v>3.598767186395889</v>
+      </c>
+      <c r="AE53" s="2">
+        <v>-1.487291242993557</v>
+      </c>
+    </row>
+    <row r="54" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>41729</v>
       </c>
@@ -3049,8 +5875,63 @@
       <c r="O54" s="2">
         <v>95.921196271799104</v>
       </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P54" s="1">
+        <v>41729</v>
+      </c>
+      <c r="Q54" s="2">
+        <f t="shared" si="0"/>
+        <v>13.05150450709826</v>
+      </c>
+      <c r="R54" s="2">
+        <f t="shared" si="1"/>
+        <v>-30.608728104286719</v>
+      </c>
+      <c r="S54" s="2">
+        <f t="shared" si="20"/>
+        <v>30.868518379371334</v>
+      </c>
+      <c r="T54" s="2">
+        <f t="shared" si="4"/>
+        <v>35.044485433732973</v>
+      </c>
+      <c r="U54" s="2">
+        <f t="shared" ref="U54:W54" si="52">(G54-G50)/G50*100</f>
+        <v>-1.3605442176870874</v>
+      </c>
+      <c r="V54" s="2">
+        <f t="shared" si="52"/>
+        <v>-0.26887562803877907</v>
+      </c>
+      <c r="W54" s="2">
+        <f t="shared" si="52"/>
+        <v>-27.795285710838296</v>
+      </c>
+      <c r="X54" s="1">
+        <v>41729</v>
+      </c>
+      <c r="Y54" s="2">
+        <v>4.5629817352630724</v>
+      </c>
+      <c r="Z54" s="2">
+        <v>1.9807783127601559</v>
+      </c>
+      <c r="AA54" s="2">
+        <v>3.2551234075090529</v>
+      </c>
+      <c r="AB54" s="2">
+        <v>1.3072498534915991</v>
+      </c>
+      <c r="AC54" s="2">
+        <v>0.99999999999980105</v>
+      </c>
+      <c r="AD54" s="2">
+        <v>-8.6805461478434154E-4</v>
+      </c>
+      <c r="AE54" s="2">
+        <v>-0.70024280329841204</v>
+      </c>
+    </row>
+    <row r="55" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>41820</v>
       </c>
@@ -3096,8 +5977,63 @@
       <c r="O55" s="2">
         <v>93.583806856890803</v>
       </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P55" s="1">
+        <v>41820</v>
+      </c>
+      <c r="Q55" s="2">
+        <f t="shared" si="0"/>
+        <v>3.0780663849973129</v>
+      </c>
+      <c r="R55" s="2">
+        <f t="shared" si="1"/>
+        <v>-32.460219741243193</v>
+      </c>
+      <c r="S55" s="2">
+        <f t="shared" si="20"/>
+        <v>8.0353563016706193</v>
+      </c>
+      <c r="T55" s="2">
+        <f t="shared" si="4"/>
+        <v>26.290223892711317</v>
+      </c>
+      <c r="U55" s="2">
+        <f t="shared" ref="U55:W55" si="53">(G55-G51)/G51*100</f>
+        <v>-1.0557723204039537</v>
+      </c>
+      <c r="V55" s="2">
+        <f t="shared" si="53"/>
+        <v>7.8708382639173138E-2</v>
+      </c>
+      <c r="W55" s="2">
+        <f t="shared" si="53"/>
+        <v>-21.180813533963875</v>
+      </c>
+      <c r="X55" s="1">
+        <v>41820</v>
+      </c>
+      <c r="Y55" s="2">
+        <v>3.7812511179371677</v>
+      </c>
+      <c r="Z55" s="2">
+        <v>1.6744477711481349</v>
+      </c>
+      <c r="AA55" s="2">
+        <v>0.84392088342828409</v>
+      </c>
+      <c r="AB55" s="2">
+        <v>0.25277161530456999</v>
+      </c>
+      <c r="AC55" s="2">
+        <v>31.583333333333393</v>
+      </c>
+      <c r="AD55" s="2">
+        <v>-5.4034856525190662</v>
+      </c>
+      <c r="AE55" s="2">
+        <v>-0.72853510076079075</v>
+      </c>
+    </row>
+    <row r="56" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>41912</v>
       </c>
@@ -3143,8 +6079,63 @@
       <c r="O56" s="2">
         <v>97.599425204495205</v>
       </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P56" s="1">
+        <v>41912</v>
+      </c>
+      <c r="Q56" s="2">
+        <f t="shared" si="0"/>
+        <v>5.2504512348235073</v>
+      </c>
+      <c r="R56" s="2">
+        <f t="shared" si="1"/>
+        <v>-32.869301981293653</v>
+      </c>
+      <c r="S56" s="2">
+        <f t="shared" si="20"/>
+        <v>14.178290413045271</v>
+      </c>
+      <c r="T56" s="2">
+        <f t="shared" si="4"/>
+        <v>20.979832334239525</v>
+      </c>
+      <c r="U56" s="2">
+        <f t="shared" ref="U56:W56" si="54">(G56-G52)/G52*100</f>
+        <v>1.3607066125567053</v>
+      </c>
+      <c r="V56" s="2">
+        <f t="shared" si="54"/>
+        <v>3.2338083294209723E-2</v>
+      </c>
+      <c r="W56" s="2">
+        <f t="shared" si="54"/>
+        <v>-9.3286647562891005</v>
+      </c>
+      <c r="X56" s="1">
+        <v>41912</v>
+      </c>
+      <c r="Y56" s="2">
+        <v>5.3525370474660221</v>
+      </c>
+      <c r="Z56" s="2">
+        <v>1.0977158101308842</v>
+      </c>
+      <c r="AA56" s="2">
+        <v>1.7739561427165711</v>
+      </c>
+      <c r="AB56" s="2">
+        <v>-0.13799262854419242</v>
+      </c>
+      <c r="AC56" s="2">
+        <v>-7.2499999999999787</v>
+      </c>
+      <c r="AD56" s="2">
+        <v>0.6068872829710017</v>
+      </c>
+      <c r="AE56" s="2">
+        <v>0.43159795693783559</v>
+      </c>
+    </row>
+    <row r="57" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>42004</v>
       </c>
@@ -3190,8 +6181,63 @@
       <c r="O57" s="2">
         <v>97.131480145840897</v>
       </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P57" s="1">
+        <v>42004</v>
+      </c>
+      <c r="Q57" s="2">
+        <f t="shared" si="0"/>
+        <v>10.283614592960364</v>
+      </c>
+      <c r="R57" s="2">
+        <f t="shared" si="1"/>
+        <v>-22.969526474033337</v>
+      </c>
+      <c r="S57" s="2">
+        <f t="shared" si="20"/>
+        <v>22.9760993597823</v>
+      </c>
+      <c r="T57" s="2">
+        <f t="shared" si="4"/>
+        <v>17.35893585067582</v>
+      </c>
+      <c r="U57" s="2">
+        <f t="shared" ref="U57:W57" si="55">(G57-G53)/G53*100</f>
+        <v>5.0207165488666616</v>
+      </c>
+      <c r="V57" s="2">
+        <f t="shared" si="55"/>
+        <v>0.37383518741058613</v>
+      </c>
+      <c r="W57" s="2">
+        <f t="shared" si="55"/>
+        <v>3.6258082808811598</v>
+      </c>
+      <c r="X57" s="1">
+        <v>42004</v>
+      </c>
+      <c r="Y57" s="2">
+        <v>-1.200803451507459</v>
+      </c>
+      <c r="Z57" s="2">
+        <v>1.0312007158637231</v>
+      </c>
+      <c r="AA57" s="2">
+        <v>1.1367097613523609</v>
+      </c>
+      <c r="AB57" s="2">
+        <v>1.4994840654918411</v>
+      </c>
+      <c r="AC57" s="2">
+        <v>10.49999999999986</v>
+      </c>
+      <c r="AD57" s="2">
+        <v>9.398026160419704</v>
+      </c>
+      <c r="AE57" s="2">
+        <v>0.36479220367170129</v>
+      </c>
+    </row>
+    <row r="58" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>42094</v>
       </c>
@@ -3237,8 +6283,63 @@
       <c r="O58" s="2">
         <v>91.098105409643594</v>
       </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P58" s="1">
+        <v>42094</v>
+      </c>
+      <c r="Q58" s="2">
+        <f t="shared" si="0"/>
+        <v>12.635763668291911</v>
+      </c>
+      <c r="R58" s="2">
+        <f t="shared" si="1"/>
+        <v>-10.34918286684427</v>
+      </c>
+      <c r="S58" s="2">
+        <f t="shared" si="20"/>
+        <v>20.446624237711628</v>
+      </c>
+      <c r="T58" s="2">
+        <f t="shared" si="4"/>
+        <v>15.465346335780497</v>
+      </c>
+      <c r="U58" s="2">
+        <f t="shared" ref="U58:W58" si="56">(G58-G54)/G54*100</f>
+        <v>0.92746730083234818</v>
+      </c>
+      <c r="V58" s="2">
+        <f t="shared" si="56"/>
+        <v>-0.10623265547413571</v>
+      </c>
+      <c r="W58" s="2">
+        <f t="shared" si="56"/>
+        <v>9.766002551897456</v>
+      </c>
+      <c r="X58" s="1">
+        <v>42094</v>
+      </c>
+      <c r="Y58" s="2">
+        <v>-1.9663988639698431</v>
+      </c>
+      <c r="Z58" s="2">
+        <v>3.0755699801224829</v>
+      </c>
+      <c r="AA58" s="2">
+        <v>2.7901057778649148</v>
+      </c>
+      <c r="AB58" s="2">
+        <v>3.7115306223105771</v>
+      </c>
+      <c r="AC58" s="2">
+        <v>-10.749999999999989</v>
+      </c>
+      <c r="AD58" s="2">
+        <v>2.5657051708249128</v>
+      </c>
+      <c r="AE58" s="2">
+        <v>0.70334247503817693</v>
+      </c>
+    </row>
+    <row r="59" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>42185</v>
       </c>
@@ -3284,8 +6385,63 @@
       <c r="O59" s="2">
         <v>91.789608724417207</v>
       </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P59" s="1">
+        <v>42185</v>
+      </c>
+      <c r="Q59" s="2">
+        <f t="shared" si="0"/>
+        <v>12.556881007100722</v>
+      </c>
+      <c r="R59" s="2">
+        <f t="shared" si="1"/>
+        <v>-8.4360478867033155</v>
+      </c>
+      <c r="S59" s="2">
+        <f t="shared" si="20"/>
+        <v>19.889204391876738</v>
+      </c>
+      <c r="T59" s="2">
+        <f t="shared" si="4"/>
+        <v>13.763508903764194</v>
+      </c>
+      <c r="U59" s="2">
+        <f t="shared" ref="U59:W59" si="57">(G59-G55)/G55*100</f>
+        <v>-0.1159823706796501</v>
+      </c>
+      <c r="V59" s="2">
+        <f t="shared" si="57"/>
+        <v>-1.2236464792588753</v>
+      </c>
+      <c r="W59" s="2">
+        <f t="shared" si="57"/>
+        <v>7.5530200076780059</v>
+      </c>
+      <c r="X59" s="1">
+        <v>42185</v>
+      </c>
+      <c r="Y59" s="2">
+        <v>4.3916870655615732</v>
+      </c>
+      <c r="Z59" s="2">
+        <v>2.9789549200539782</v>
+      </c>
+      <c r="AA59" s="2">
+        <v>0.93003525928829767</v>
+      </c>
+      <c r="AB59" s="2">
+        <v>0.88950640403104853</v>
+      </c>
+      <c r="AC59" s="2">
+        <v>5.833333333333357</v>
+      </c>
+      <c r="AD59" s="2">
+        <v>-18.168585080686402</v>
+      </c>
+      <c r="AE59" s="2">
+        <v>-0.38317876557965752</v>
+      </c>
+    </row>
+    <row r="60" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>42277</v>
       </c>
@@ -3331,8 +6487,63 @@
       <c r="O60" s="2">
         <v>85.969375723020704</v>
       </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P60" s="1">
+        <v>42277</v>
+      </c>
+      <c r="Q60" s="2">
+        <f t="shared" si="0"/>
+        <v>12.119137465008755</v>
+      </c>
+      <c r="R60" s="2">
+        <f t="shared" si="1"/>
+        <v>22.286665764068154</v>
+      </c>
+      <c r="S60" s="2">
+        <f t="shared" si="20"/>
+        <v>11.28932426344303</v>
+      </c>
+      <c r="T60" s="2">
+        <f t="shared" si="4"/>
+        <v>9.1615972620513872</v>
+      </c>
+      <c r="U60" s="2">
+        <f t="shared" ref="U60:W60" si="58">(G60-G56)/G56*100</f>
+        <v>1.1540273198304334</v>
+      </c>
+      <c r="V60" s="2">
+        <f t="shared" si="58"/>
+        <v>-1.4656087726136027</v>
+      </c>
+      <c r="W60" s="2">
+        <f t="shared" si="58"/>
+        <v>1.3587417799625312</v>
+      </c>
+      <c r="X60" s="1">
+        <v>42277</v>
+      </c>
+      <c r="Y60" s="2">
+        <v>-4.3155940520844824</v>
+      </c>
+      <c r="Z60" s="2">
+        <v>-3.2308246462502743</v>
+      </c>
+      <c r="AA60" s="2">
+        <v>-3.4445750344014307E-2</v>
+      </c>
+      <c r="AB60" s="2">
+        <v>-0.65227331730686178</v>
+      </c>
+      <c r="AC60" s="2">
+        <v>6.9166666666669485</v>
+      </c>
+      <c r="AD60" s="2">
+        <v>-3.3890744431805619</v>
+      </c>
+      <c r="AE60" s="2">
+        <v>-0.24079045552029041</v>
+      </c>
+    </row>
+    <row r="61" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>42369</v>
       </c>
@@ -3378,8 +6589,63 @@
       <c r="O61" s="2">
         <v>85.857193485533102</v>
       </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P61" s="1">
+        <v>42369</v>
+      </c>
+      <c r="Q61" s="2">
+        <f t="shared" si="0"/>
+        <v>13.205933839272699</v>
+      </c>
+      <c r="R61" s="2">
+        <f t="shared" si="1"/>
+        <v>9.0053024456775947</v>
+      </c>
+      <c r="S61" s="2">
+        <f t="shared" si="20"/>
+        <v>19.125971291389511</v>
+      </c>
+      <c r="T61" s="2">
+        <f t="shared" si="4"/>
+        <v>8.2704155317087462</v>
+      </c>
+      <c r="U61" s="2">
+        <f t="shared" ref="U61:W61" si="59">(G61-G57)/G57*100</f>
+        <v>-1.3228127175678654</v>
+      </c>
+      <c r="V61" s="2">
+        <f t="shared" si="59"/>
+        <v>-2.2928804938432497</v>
+      </c>
+      <c r="W61" s="2">
+        <f t="shared" si="59"/>
+        <v>0.94788597674312325</v>
+      </c>
+      <c r="X61" s="1">
+        <v>42369</v>
+      </c>
+      <c r="Y61" s="2">
+        <v>-4.7441984823881516</v>
+      </c>
+      <c r="Z61" s="2">
+        <v>3.071571943516294</v>
+      </c>
+      <c r="AA61" s="2">
+        <v>0.37890325378412409</v>
+      </c>
+      <c r="AB61" s="2">
+        <v>3.4379065417469601</v>
+      </c>
+      <c r="AC61" s="2">
+        <v>-10.166666666666831</v>
+      </c>
+      <c r="AD61" s="2">
+        <v>-6.9756202187993486</v>
+      </c>
+      <c r="AE61" s="2">
+        <v>0.5859978473371541</v>
+      </c>
+    </row>
+    <row r="62" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>42460</v>
       </c>
@@ -3425,8 +6691,63 @@
       <c r="O62" s="2">
         <v>89.9928309184331</v>
       </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P62" s="1">
+        <v>42460</v>
+      </c>
+      <c r="Q62" s="2">
+        <f t="shared" si="0"/>
+        <v>8.1877406660999004</v>
+      </c>
+      <c r="R62" s="2">
+        <f t="shared" si="1"/>
+        <v>-11.01152585907837</v>
+      </c>
+      <c r="S62" s="2">
+        <f t="shared" si="20"/>
+        <v>16.240605934839376</v>
+      </c>
+      <c r="T62" s="2">
+        <f t="shared" si="4"/>
+        <v>6.3564408106462551</v>
+      </c>
+      <c r="U62" s="2">
+        <f t="shared" ref="U62:W62" si="60">(G62-G58)/G58*100</f>
+        <v>0.77756833176249673</v>
+      </c>
+      <c r="V62" s="2">
+        <f t="shared" si="60"/>
+        <v>-1.0696454357122134</v>
+      </c>
+      <c r="W62" s="2">
+        <f t="shared" si="60"/>
+        <v>-9.3811978719531144</v>
+      </c>
+      <c r="X62" s="1">
+        <v>42460</v>
+      </c>
+      <c r="Y62" s="2">
+        <v>4.7272754102038288</v>
+      </c>
+      <c r="Z62" s="2">
+        <v>2.8403523634686008</v>
+      </c>
+      <c r="AA62" s="2">
+        <v>2.0667450206406701</v>
+      </c>
+      <c r="AB62" s="2">
+        <v>1.227144192157215</v>
+      </c>
+      <c r="AC62" s="2">
+        <v>-16.000000000000007</v>
+      </c>
+      <c r="AD62" s="2">
+        <v>7.8207870203809762</v>
+      </c>
+      <c r="AE62" s="2">
+        <v>-0.34965558762127458</v>
+      </c>
+    </row>
+    <row r="63" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>42551</v>
       </c>
@@ -3472,8 +6793,63 @@
       <c r="O63" s="2">
         <v>87.718613850401695</v>
       </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P63" s="1">
+        <v>42551</v>
+      </c>
+      <c r="Q63" s="2">
+        <f t="shared" si="0"/>
+        <v>10.388968124250638</v>
+      </c>
+      <c r="R63" s="2">
+        <f t="shared" si="1"/>
+        <v>-13.420239317421204</v>
+      </c>
+      <c r="S63" s="2">
+        <f t="shared" si="20"/>
+        <v>21.505772745747869</v>
+      </c>
+      <c r="T63" s="2">
+        <f t="shared" si="4"/>
+        <v>5.8979462353442162</v>
+      </c>
+      <c r="U63" s="2">
+        <f t="shared" ref="U63:W63" si="61">(G63-G59)/G59*100</f>
+        <v>3.947979563399918</v>
+      </c>
+      <c r="V63" s="2">
+        <f t="shared" si="61"/>
+        <v>-0.45335898683858356</v>
+      </c>
+      <c r="W63" s="2">
+        <f t="shared" si="61"/>
+        <v>-11.091624055695885</v>
+      </c>
+      <c r="X63" s="1">
+        <v>42551</v>
+      </c>
+      <c r="Y63" s="2">
+        <v>4.424109617100525</v>
+      </c>
+      <c r="Z63" s="2">
+        <v>4.9769750965018789</v>
+      </c>
+      <c r="AA63" s="2">
+        <v>0.241120252408078</v>
+      </c>
+      <c r="AB63" s="2">
+        <v>1.759472343704882</v>
+      </c>
+      <c r="AC63" s="2">
+        <v>29.08333333333335</v>
+      </c>
+      <c r="AD63" s="2">
+        <v>9.1452228338994246E-2</v>
+      </c>
+      <c r="AE63" s="2">
+        <v>-0.93999633744441624</v>
+      </c>
+    </row>
+    <row r="64" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>42643</v>
       </c>
@@ -3519,8 +6895,63 @@
       <c r="O64" s="2">
         <v>91.552792810773695</v>
       </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P64" s="1">
+        <v>42643</v>
+      </c>
+      <c r="Q64" s="2">
+        <f t="shared" si="0"/>
+        <v>7.0295432334197203</v>
+      </c>
+      <c r="R64" s="2">
+        <f t="shared" si="1"/>
+        <v>-31.636019661790048</v>
+      </c>
+      <c r="S64" s="2">
+        <f t="shared" si="20"/>
+        <v>22.211825338480281</v>
+      </c>
+      <c r="T64" s="2">
+        <f t="shared" si="4"/>
+        <v>6.4443889372184575</v>
+      </c>
+      <c r="U64" s="2">
+        <f t="shared" ref="U64:W64" si="62">(G64-G60)/G60*100</f>
+        <v>5.9371362048893905</v>
+      </c>
+      <c r="V64" s="2">
+        <f t="shared" si="62"/>
+        <v>-1.5089729556372005</v>
+      </c>
+      <c r="W64" s="2">
+        <f t="shared" si="62"/>
+        <v>-13.271135903299902</v>
+      </c>
+      <c r="X64" s="1">
+        <v>42643</v>
+      </c>
+      <c r="Y64" s="2">
+        <v>1.661537885236924</v>
+      </c>
+      <c r="Z64" s="2">
+        <v>0.58072418167048889</v>
+      </c>
+      <c r="AA64" s="2">
+        <v>-1.6533960165125432</v>
+      </c>
+      <c r="AB64" s="2">
+        <v>-0.91030368989439836</v>
+      </c>
+      <c r="AC64" s="2">
+        <v>30.250000000000021</v>
+      </c>
+      <c r="AD64" s="2">
+        <v>-14.48617985263445</v>
+      </c>
+      <c r="AE64" s="2">
+        <v>9.6707164766328901E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>42735</v>
       </c>
@@ -3566,8 +6997,63 @@
       <c r="O65" s="2">
         <v>96.0019712108937</v>
       </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P65" s="1">
+        <v>42735</v>
+      </c>
+      <c r="Q65" s="2">
+        <f t="shared" si="0"/>
+        <v>3.5766979474182117</v>
+      </c>
+      <c r="R65" s="2">
+        <f t="shared" si="1"/>
+        <v>-34.538148103932656</v>
+      </c>
+      <c r="S65" s="2">
+        <f t="shared" si="20"/>
+        <v>7.8542112634908348</v>
+      </c>
+      <c r="T65" s="2">
+        <f t="shared" si="4"/>
+        <v>13.95525538201772</v>
+      </c>
+      <c r="U65" s="2">
+        <f t="shared" ref="U65:W65" si="63">(G65-G61)/G61*100</f>
+        <v>6.6321730950140951</v>
+      </c>
+      <c r="V65" s="2">
+        <f t="shared" si="63"/>
+        <v>-0.82531351998233349</v>
+      </c>
+      <c r="W65" s="2">
+        <f t="shared" si="63"/>
+        <v>-25.259215507692701</v>
+      </c>
+      <c r="X65" s="1">
+        <v>42735</v>
+      </c>
+      <c r="Y65" s="2">
+        <v>0.14483310127232921</v>
+      </c>
+      <c r="Z65" s="2">
+        <v>-3.8436525815873526</v>
+      </c>
+      <c r="AA65" s="2">
+        <v>4.3918331688614245</v>
+      </c>
+      <c r="AB65" s="2">
+        <v>-0.32912674055787239</v>
+      </c>
+      <c r="AC65" s="2">
+        <v>-2.7500000000003411</v>
+      </c>
+      <c r="AD65" s="2">
+        <v>-0.4907119141792009</v>
+      </c>
+      <c r="AE65" s="2">
+        <v>-0.44401057380598979</v>
+      </c>
+    </row>
+    <row r="66" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>42825</v>
       </c>
@@ -3613,8 +7099,63 @@
       <c r="O66" s="2">
         <v>95.550908817722203</v>
       </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P66" s="1">
+        <v>42825</v>
+      </c>
+      <c r="Q66" s="2">
+        <f t="shared" si="0"/>
+        <v>7.6245787958311633</v>
+      </c>
+      <c r="R66" s="2">
+        <f t="shared" si="1"/>
+        <v>-33.044493948653027</v>
+      </c>
+      <c r="S66" s="2">
+        <f t="shared" si="20"/>
+        <v>14.357497624078363</v>
+      </c>
+      <c r="T66" s="2">
+        <f t="shared" si="4"/>
+        <v>12.308837239732386</v>
+      </c>
+      <c r="U66" s="2">
+        <f t="shared" ref="U66:W66" si="64">(G66-G62)/G62*100</f>
+        <v>7.7624503156418099</v>
+      </c>
+      <c r="V66" s="2">
+        <f t="shared" si="64"/>
+        <v>-1.7681430857875233</v>
+      </c>
+      <c r="W66" s="2">
+        <f t="shared" si="64"/>
+        <v>-34.571001482487162</v>
+      </c>
+      <c r="X66" s="1">
+        <v>42825</v>
+      </c>
+      <c r="Y66" s="2">
+        <v>3.0452640634644759</v>
+      </c>
+      <c r="Z66" s="2">
+        <v>3.1274038063173748</v>
+      </c>
+      <c r="AA66" s="2">
+        <v>3.4273521592290912</v>
+      </c>
+      <c r="AB66" s="2">
+        <v>2.5286197759620821</v>
+      </c>
+      <c r="AC66" s="2">
+        <v>-0.74999999999967326</v>
+      </c>
+      <c r="AD66" s="2">
+        <v>4.069354972960582</v>
+      </c>
+      <c r="AE66" s="2">
+        <v>-1.9672165404171049</v>
+      </c>
+    </row>
+    <row r="67" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>42916</v>
       </c>
@@ -3660,8 +7201,63 @@
       <c r="O67" s="2">
         <v>92.758413867182497</v>
       </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P67" s="1">
+        <v>42916</v>
+      </c>
+      <c r="Q67" s="2">
+        <f t="shared" si="0"/>
+        <v>7.9832281945705299</v>
+      </c>
+      <c r="R67" s="2">
+        <f t="shared" si="1"/>
+        <v>-34.071442400240805</v>
+      </c>
+      <c r="S67" s="2">
+        <f t="shared" si="20"/>
+        <v>14.390314625332426</v>
+      </c>
+      <c r="T67" s="2">
+        <f t="shared" si="4"/>
+        <v>11.710151588519659</v>
+      </c>
+      <c r="U67" s="2">
+        <f t="shared" ref="U67:W67" si="65">(G67-G63)/G63*100</f>
+        <v>6.166219839142066</v>
+      </c>
+      <c r="V67" s="2">
+        <f t="shared" si="65"/>
+        <v>-2.2624599441212681</v>
+      </c>
+      <c r="W67" s="2">
+        <f t="shared" si="65"/>
+        <v>-30.906020013068314</v>
+      </c>
+      <c r="X67" s="1">
+        <v>42916</v>
+      </c>
+      <c r="Y67" s="2">
+        <v>1.948539064845312</v>
+      </c>
+      <c r="Z67" s="2">
+        <v>6.7361726405317013</v>
+      </c>
+      <c r="AA67" s="2">
+        <v>-0.58557775584819893</v>
+      </c>
+      <c r="AB67" s="2">
+        <v>3.177084934855201</v>
+      </c>
+      <c r="AC67" s="2">
+        <v>28.583333333333272</v>
+      </c>
+      <c r="AD67" s="2">
+        <v>-13.266643170885351</v>
+      </c>
+      <c r="AE67" s="2">
+        <v>-1.3342429815196</v>
+      </c>
+    </row>
+    <row r="68" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>43008</v>
       </c>
@@ -3707,8 +7303,63 @@
       <c r="O68" s="2">
         <v>100.504606211002</v>
       </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P68" s="1">
+        <v>43008</v>
+      </c>
+      <c r="Q68" s="2">
+        <f t="shared" si="0"/>
+        <v>8.2614721995881961</v>
+      </c>
+      <c r="R68" s="2">
+        <f t="shared" si="1"/>
+        <v>-44.056496980710271</v>
+      </c>
+      <c r="S68" s="2">
+        <f t="shared" si="20"/>
+        <v>16.109912987357724</v>
+      </c>
+      <c r="T68" s="2">
+        <f t="shared" si="4"/>
+        <v>12.460451680247338</v>
+      </c>
+      <c r="U68" s="2">
+        <f t="shared" ref="U68:W68" si="66">(G68-G64)/G64*100</f>
+        <v>4.835164835164842</v>
+      </c>
+      <c r="V68" s="2">
+        <f t="shared" si="66"/>
+        <v>-1.5666153123516886</v>
+      </c>
+      <c r="W68" s="2">
+        <f t="shared" si="66"/>
+        <v>-18.100424716483687</v>
+      </c>
+      <c r="X68" s="1">
+        <v>43008</v>
+      </c>
+      <c r="Y68" s="2">
+        <v>1.6775458305975539</v>
+      </c>
+      <c r="Z68" s="2">
+        <v>-0.24329620320440171</v>
+      </c>
+      <c r="AA68" s="2">
+        <v>1.050595385492392</v>
+      </c>
+      <c r="AB68" s="2">
+        <v>-0.16784703080785499</v>
+      </c>
+      <c r="AC68" s="2">
+        <v>28.333333333333321</v>
+      </c>
+      <c r="AD68" s="2">
+        <v>-13.864661911592069</v>
+      </c>
+      <c r="AE68" s="2">
+        <v>1.1690725572597029</v>
+      </c>
+    </row>
+    <row r="69" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>43100</v>
       </c>
@@ -3754,8 +7405,63 @@
       <c r="O69" s="2">
         <v>102.40561446269101</v>
       </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P69" s="1">
+        <v>43100</v>
+      </c>
+      <c r="Q69" s="2">
+        <f t="shared" si="0"/>
+        <v>6.3823923950364874</v>
+      </c>
+      <c r="R69" s="2">
+        <f t="shared" si="1"/>
+        <v>-61.137568296439241</v>
+      </c>
+      <c r="S69" s="2">
+        <f t="shared" si="20"/>
+        <v>23.427164210327259</v>
+      </c>
+      <c r="T69" s="2">
+        <f t="shared" si="4"/>
+        <v>2.3847977478144569</v>
+      </c>
+      <c r="U69" s="2">
+        <f t="shared" ref="U69:W69" si="67">(G69-G65)/G65*100</f>
+        <v>1.6541685046316954</v>
+      </c>
+      <c r="V69" s="2">
+        <f t="shared" si="67"/>
+        <v>-0.73968501890351734</v>
+      </c>
+      <c r="W69" s="2">
+        <f t="shared" si="67"/>
+        <v>-10.858839450286141</v>
+      </c>
+      <c r="X69" s="1">
+        <v>43100</v>
+      </c>
+      <c r="Y69" s="2">
+        <v>5.3901207987645003</v>
+      </c>
+      <c r="Z69" s="2">
+        <v>1.448404334731612</v>
+      </c>
+      <c r="AA69" s="2">
+        <v>8.6114375859969172E-2</v>
+      </c>
+      <c r="AB69" s="2">
+        <v>-0.71368507614681942</v>
+      </c>
+      <c r="AC69" s="2">
+        <v>-25.583333333333158</v>
+      </c>
+      <c r="AD69" s="2">
+        <v>7.4300720547109904</v>
+      </c>
+      <c r="AE69" s="2">
+        <v>0.46728418185014142</v>
+      </c>
+    </row>
+    <row r="70" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>43190</v>
       </c>
@@ -3801,8 +7507,63 @@
       <c r="O70" s="2">
         <v>100.282796678441</v>
       </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P70" s="1">
+        <v>43190</v>
+      </c>
+      <c r="Q70" s="2">
+        <f t="shared" si="0"/>
+        <v>4.2864919274599558</v>
+      </c>
+      <c r="R70" s="2">
+        <f t="shared" si="1"/>
+        <v>-52.890680932086198</v>
+      </c>
+      <c r="S70" s="2">
+        <f t="shared" si="20"/>
+        <v>15.270198036449207</v>
+      </c>
+      <c r="T70" s="2">
+        <f t="shared" si="4"/>
+        <v>1.2670302703726619</v>
+      </c>
+      <c r="U70" s="2">
+        <f t="shared" ref="U70:W70" si="68">(G70-G66)/G66*100</f>
+        <v>6.5090041223679812E-2</v>
+      </c>
+      <c r="V70" s="2">
+        <f t="shared" si="68"/>
+        <v>5.3421538564188777E-2</v>
+      </c>
+      <c r="W70" s="2">
+        <f t="shared" si="68"/>
+        <v>0.59133225509196885</v>
+      </c>
+      <c r="X70" s="1">
+        <v>43190</v>
+      </c>
+      <c r="Y70" s="2">
+        <v>1.3468561382360629</v>
+      </c>
+      <c r="Z70" s="2">
+        <v>3.2751048175616582</v>
+      </c>
+      <c r="AA70" s="2">
+        <v>-1.7222875171962752E-2</v>
+      </c>
+      <c r="AB70" s="2">
+        <v>1.547326954133732</v>
+      </c>
+      <c r="AC70" s="2">
+        <v>-12.333333333333311</v>
+      </c>
+      <c r="AD70" s="2">
+        <v>12.812308700189529</v>
+      </c>
+      <c r="AE70" s="2">
+        <v>-0.90024500941148311</v>
+      </c>
+    </row>
+    <row r="71" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>43281</v>
       </c>
@@ -3848,8 +7609,63 @@
       <c r="O71" s="2">
         <v>97.274531163895801</v>
       </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P71" s="1">
+        <v>43281</v>
+      </c>
+      <c r="Q71" s="2">
+        <f t="shared" ref="Q71:Q88" si="69">(E71-E67)/E67*100</f>
+        <v>2.1522439764118499</v>
+      </c>
+      <c r="R71" s="2">
+        <f t="shared" ref="R71:R88" si="70">(B71-B67)/B67*100</f>
+        <v>-55.66511899244626</v>
+      </c>
+      <c r="S71" s="2">
+        <f t="shared" si="20"/>
+        <v>8.850719697807321</v>
+      </c>
+      <c r="T71" s="2">
+        <f t="shared" si="4"/>
+        <v>2.9402472981610153</v>
+      </c>
+      <c r="U71" s="2">
+        <f t="shared" ref="U71:W71" si="71">(G71-G67)/G67*100</f>
+        <v>-3.0934343434343337</v>
+      </c>
+      <c r="V71" s="2">
+        <f t="shared" si="71"/>
+        <v>0.74275185560026746</v>
+      </c>
+      <c r="W71" s="2">
+        <f t="shared" si="71"/>
+        <v>6.8651340388692654</v>
+      </c>
+      <c r="X71" s="1">
+        <v>43281</v>
+      </c>
+      <c r="Y71" s="2">
+        <v>1.497484101334728</v>
+      </c>
+      <c r="Z71" s="2">
+        <v>0.10323691262286161</v>
+      </c>
+      <c r="AA71" s="2">
+        <v>0.29278887792407732</v>
+      </c>
+      <c r="AB71" s="2">
+        <v>-0.25397406744367407</v>
+      </c>
+      <c r="AC71" s="2">
+        <v>6.1666666666665648</v>
+      </c>
+      <c r="AD71" s="2">
+        <v>-1.733739108338568</v>
+      </c>
+      <c r="AE71" s="2">
+        <v>0.14665721905325671</v>
+      </c>
+    </row>
+    <row r="72" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>43373</v>
       </c>
@@ -3895,8 +7711,63 @@
       <c r="O72" s="2">
         <v>90.729972476341104</v>
       </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P72" s="1">
+        <v>43373</v>
+      </c>
+      <c r="Q72" s="2">
+        <f t="shared" si="69"/>
+        <v>7.2669027716745109</v>
+      </c>
+      <c r="R72" s="2">
+        <f t="shared" si="70"/>
+        <v>-39.264811955342175</v>
+      </c>
+      <c r="S72" s="2">
+        <f t="shared" si="20"/>
+        <v>16.062082516391261</v>
+      </c>
+      <c r="T72" s="2">
+        <f t="shared" ref="T72:T88" si="72">(D72-D68)/D68*100</f>
+        <v>1.8779410283345306</v>
+      </c>
+      <c r="U72" s="2">
+        <f t="shared" ref="U72:W72" si="73">(G72-G68)/G68*100</f>
+        <v>-5.2410901467505164</v>
+      </c>
+      <c r="V72" s="2">
+        <f t="shared" si="73"/>
+        <v>0.60645035633566324</v>
+      </c>
+      <c r="W72" s="2">
+        <f t="shared" si="73"/>
+        <v>-12.021267214695609</v>
+      </c>
+      <c r="X72" s="1">
+        <v>43373</v>
+      </c>
+      <c r="Y72" s="2">
+        <v>-0.29068898913832131</v>
+      </c>
+      <c r="Z72" s="2">
+        <v>3.3792696101508479</v>
+      </c>
+      <c r="AA72" s="2">
+        <v>0.70613788205222683</v>
+      </c>
+      <c r="AB72" s="2">
+        <v>2.4336608838987139</v>
+      </c>
+      <c r="AC72" s="2">
+        <v>-5.4999999999997939</v>
+      </c>
+      <c r="AD72" s="2">
+        <v>-8.6517965182686112</v>
+      </c>
+      <c r="AE72" s="2">
+        <v>-0.34063805505349259</v>
+      </c>
+    </row>
+    <row r="73" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>43465</v>
       </c>
@@ -3942,8 +7813,63 @@
       <c r="O73" s="2">
         <v>94.823876278301597</v>
       </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P73" s="1">
+        <v>43465</v>
+      </c>
+      <c r="Q73" s="2">
+        <f t="shared" si="69"/>
+        <v>7.0036862326239779</v>
+      </c>
+      <c r="R73" s="2">
+        <f t="shared" si="70"/>
+        <v>-13.943576561942333</v>
+      </c>
+      <c r="S73" s="2">
+        <f t="shared" si="20"/>
+        <v>11.336985137486199</v>
+      </c>
+      <c r="T73" s="2">
+        <f t="shared" si="72"/>
+        <v>2.7699187403671588</v>
+      </c>
+      <c r="U73" s="2">
+        <f t="shared" ref="U73:W73" si="74">(G73-G69)/G69*100</f>
+        <v>-4.3393360815795257</v>
+      </c>
+      <c r="V73" s="2">
+        <f t="shared" si="74"/>
+        <v>-3.0152827108288423E-2</v>
+      </c>
+      <c r="W73" s="2">
+        <f t="shared" si="74"/>
+        <v>-0.9486549674363064</v>
+      </c>
+      <c r="X73" s="1">
+        <v>43465</v>
+      </c>
+      <c r="Y73" s="2">
+        <v>1.837598840582555</v>
+      </c>
+      <c r="Z73" s="2">
+        <v>-1.8405889631283308</v>
+      </c>
+      <c r="AA73" s="2">
+        <v>0.29278887792407732</v>
+      </c>
+      <c r="AB73" s="2">
+        <v>-1.5195017978354211</v>
+      </c>
+      <c r="AC73" s="2">
+        <v>-29.499999999999986</v>
+      </c>
+      <c r="AD73" s="2">
+        <v>7.9836923229290733</v>
+      </c>
+      <c r="AE73" s="2">
+        <v>0.46041329872051412</v>
+      </c>
+    </row>
+    <row r="74" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>43555</v>
       </c>
@@ -3989,8 +7915,63 @@
       <c r="O74" s="2">
         <v>93.003467965174394</v>
       </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P74" s="1">
+        <v>43555</v>
+      </c>
+      <c r="Q74" s="2">
+        <f t="shared" si="69"/>
+        <v>13.868446033496992</v>
+      </c>
+      <c r="R74" s="2">
+        <f t="shared" si="70"/>
+        <v>29.230967816622044</v>
+      </c>
+      <c r="S74" s="2">
+        <f t="shared" si="20"/>
+        <v>20.572769155996731</v>
+      </c>
+      <c r="T74" s="2">
+        <f t="shared" si="72"/>
+        <v>2.7525904407164838</v>
+      </c>
+      <c r="U74" s="2">
+        <f t="shared" ref="U74:W74" si="75">(G74-G70)/G70*100</f>
+        <v>-3.3824804856895025</v>
+      </c>
+      <c r="V74" s="2">
+        <f t="shared" si="75"/>
+        <v>-1.5302748835031121</v>
+      </c>
+      <c r="W74" s="2">
+        <f t="shared" si="75"/>
+        <v>4.1397148585051724</v>
+      </c>
+      <c r="X74" s="1">
+        <v>43555</v>
+      </c>
+      <c r="Y74" s="2">
+        <v>-4.4358756046915904</v>
+      </c>
+      <c r="Z74" s="2">
+        <v>5.9129976688639729</v>
+      </c>
+      <c r="AA74" s="2">
+        <v>0.6028006310202505</v>
+      </c>
+      <c r="AB74" s="2">
+        <v>5.1484348010119705</v>
+      </c>
+      <c r="AC74" s="2">
+        <v>-4.5000000000001714</v>
+      </c>
+      <c r="AD74" s="2">
+        <v>-11.19663246803907</v>
+      </c>
+      <c r="AE74" s="2">
+        <v>-3.6794298454390528E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>43646</v>
       </c>
@@ -4036,8 +8017,63 @@
       <c r="O75" s="2">
         <v>95.115072025248907</v>
       </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P75" s="1">
+        <v>43646</v>
+      </c>
+      <c r="Q75" s="2">
+        <f t="shared" si="69"/>
+        <v>16.430503029795066</v>
+      </c>
+      <c r="R75" s="2">
+        <f t="shared" si="70"/>
+        <v>9.0276645999665774</v>
+      </c>
+      <c r="S75" s="2">
+        <f t="shared" si="20"/>
+        <v>27.142300976705691</v>
+      </c>
+      <c r="T75" s="2">
+        <f t="shared" si="72"/>
+        <v>1.3660402674983798</v>
+      </c>
+      <c r="U75" s="2">
+        <f t="shared" ref="U75:W75" si="76">(G75-G71)/G71*100</f>
+        <v>-2.4321389793702481</v>
+      </c>
+      <c r="V75" s="2">
+        <f t="shared" si="76"/>
+        <v>-0.39222417186715863</v>
+      </c>
+      <c r="W75" s="2">
+        <f t="shared" si="76"/>
+        <v>8.6856747383395449E-3</v>
+      </c>
+      <c r="X75" s="1">
+        <v>43646</v>
+      </c>
+      <c r="Y75" s="2">
+        <v>-0.93155506579354341</v>
+      </c>
+      <c r="Z75" s="2">
+        <v>7.3867514249152944</v>
+      </c>
+      <c r="AA75" s="2">
+        <v>-0.49946337998820767</v>
+      </c>
+      <c r="AB75" s="2">
+        <v>4.471549106704642</v>
+      </c>
+      <c r="AC75" s="2">
+        <v>15.166666666666551</v>
+      </c>
+      <c r="AD75" s="2">
+        <v>-2.0409363057549399</v>
+      </c>
+      <c r="AE75" s="2">
+        <v>-0.32817257912836872</v>
+      </c>
+    </row>
+    <row r="76" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>43738</v>
       </c>
@@ -4083,8 +8119,63 @@
       <c r="O76" s="2">
         <v>95.866209807302894</v>
       </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P76" s="1">
+        <v>43738</v>
+      </c>
+      <c r="Q76" s="2">
+        <f t="shared" si="69"/>
+        <v>13.4794093530466</v>
+      </c>
+      <c r="R76" s="2">
+        <f t="shared" si="70"/>
+        <v>-61.83510344471155</v>
+      </c>
+      <c r="S76" s="2">
+        <f t="shared" si="20"/>
+        <v>25.406187402566673</v>
+      </c>
+      <c r="T76" s="2">
+        <f t="shared" si="72"/>
+        <v>1.4746595852873583</v>
+      </c>
+      <c r="U76" s="2">
+        <f t="shared" ref="U76:W76" si="77">(G76-G72)/G72*100</f>
+        <v>-1.9469026548672659</v>
+      </c>
+      <c r="V76" s="2">
+        <f t="shared" si="77"/>
+        <v>0.4555771087319746</v>
+      </c>
+      <c r="W76" s="2">
+        <f t="shared" si="77"/>
+        <v>11.799755045037307</v>
+      </c>
+      <c r="X76" s="1">
+        <v>43738</v>
+      </c>
+      <c r="Y76" s="2">
+        <v>5.9130901778145128</v>
+      </c>
+      <c r="Z76" s="2">
+        <v>4.0838079038564512</v>
+      </c>
+      <c r="AA76" s="2">
+        <v>0.46501762964417104</v>
+      </c>
+      <c r="AB76" s="2">
+        <v>0.88014108069396357</v>
+      </c>
+      <c r="AC76" s="2">
+        <v>-4.6666666666666865</v>
+      </c>
+      <c r="AD76" s="2">
+        <v>3.783367853540085</v>
+      </c>
+      <c r="AE76" s="2">
+        <v>0.47774231271169038</v>
+      </c>
+    </row>
+    <row r="77" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>43830</v>
       </c>
@@ -4130,8 +8221,63 @@
       <c r="O77" s="2">
         <v>95.861305998682496</v>
       </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P77" s="1">
+        <v>43830</v>
+      </c>
+      <c r="Q77" s="2">
+        <f t="shared" si="69"/>
+        <v>15.879236380252673</v>
+      </c>
+      <c r="R77" s="2">
+        <f t="shared" si="70"/>
+        <v>-50.68366603464942</v>
+      </c>
+      <c r="S77" s="2">
+        <f t="shared" si="20"/>
+        <v>28.74029400910284</v>
+      </c>
+      <c r="T77" s="2">
+        <f t="shared" si="72"/>
+        <v>1.225119167482291</v>
+      </c>
+      <c r="U77" s="2">
+        <f t="shared" ref="U77:W77" si="78">(G77-G73)/G73*100</f>
+        <v>-0.13608528010886531</v>
+      </c>
+      <c r="V77" s="2">
+        <f t="shared" si="78"/>
+        <v>0.80868062849000399</v>
+      </c>
+      <c r="W77" s="2">
+        <f t="shared" si="78"/>
+        <v>5.2898639329174948</v>
+      </c>
+      <c r="X77" s="1">
+        <v>43830</v>
+      </c>
+      <c r="Y77" s="2">
+        <v>0.94978037395321158</v>
+      </c>
+      <c r="Z77" s="2">
+        <v>2.0897918203227839</v>
+      </c>
+      <c r="AA77" s="2">
+        <v>0.27556600275211451</v>
+      </c>
+      <c r="AB77" s="2">
+        <v>1.0916156323611761</v>
+      </c>
+      <c r="AC77" s="2">
+        <v>0.58333333333351334</v>
+      </c>
+      <c r="AD77" s="2">
+        <v>11.2689900903988</v>
+      </c>
+      <c r="AE77" s="2">
+        <v>0.17271007507717509</v>
+      </c>
+    </row>
+    <row r="78" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>43921</v>
       </c>
@@ -4177,8 +8323,63 @@
       <c r="O78" s="2">
         <v>94.187162583817994</v>
       </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P78" s="1">
+        <v>43921</v>
+      </c>
+      <c r="Q78" s="2">
+        <f t="shared" si="69"/>
+        <v>9.7871342142660236</v>
+      </c>
+      <c r="R78" s="2">
+        <f t="shared" si="70"/>
+        <v>-80.645206064915698</v>
+      </c>
+      <c r="S78" s="2">
+        <f t="shared" si="20"/>
+        <v>20.962700271243389</v>
+      </c>
+      <c r="T78" s="2">
+        <f t="shared" si="72"/>
+        <v>0.91324520458788416</v>
+      </c>
+      <c r="U78" s="2">
+        <f t="shared" ref="U78:W78" si="79">(G78-G74)/G74*100</f>
+        <v>-4.017055655296236</v>
+      </c>
+      <c r="V78" s="2">
+        <f t="shared" si="79"/>
+        <v>1.7269774179988979</v>
+      </c>
+      <c r="W78" s="2">
+        <f t="shared" si="79"/>
+        <v>13.750905282063</v>
+      </c>
+      <c r="X78" s="1">
+        <v>43921</v>
+      </c>
+      <c r="Y78" s="2">
+        <v>-9.8111404051475635</v>
+      </c>
+      <c r="Z78" s="2">
+        <v>-7.7297397629057629</v>
+      </c>
+      <c r="AA78" s="2">
+        <v>1.360607138588432</v>
+      </c>
+      <c r="AB78" s="2">
+        <v>-1.053055746815734</v>
+      </c>
+      <c r="AC78" s="2">
+        <v>-35.33333333333335</v>
+      </c>
+      <c r="AD78" s="2">
+        <v>-14.03624839450481</v>
+      </c>
+      <c r="AE78" s="2">
+        <v>-0.9884558317997616</v>
+      </c>
+    </row>
+    <row r="79" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>44012</v>
       </c>
@@ -4224,8 +8425,63 @@
       <c r="O79" s="2">
         <v>100.41306702189701</v>
       </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P79" s="1">
+        <v>44012</v>
+      </c>
+      <c r="Q79" s="2">
+        <f t="shared" si="69"/>
+        <v>18.916280281300459</v>
+      </c>
+      <c r="R79" s="2">
+        <f t="shared" si="70"/>
+        <v>-387.38223374713357</v>
+      </c>
+      <c r="S79" s="2">
+        <f t="shared" si="20"/>
+        <v>48.544449785419758</v>
+      </c>
+      <c r="T79" s="2">
+        <f t="shared" si="72"/>
+        <v>-2.6340062100867567</v>
+      </c>
+      <c r="U79" s="2">
+        <f t="shared" ref="U79:W79" si="80">(G79-G75)/G75*100</f>
+        <v>-1.6247496105052235</v>
+      </c>
+      <c r="V79" s="2">
+        <f t="shared" si="80"/>
+        <v>4.4522897228053342</v>
+      </c>
+      <c r="W79" s="2">
+        <f t="shared" si="80"/>
+        <v>52.803432114365158</v>
+      </c>
+      <c r="X79" s="1">
+        <v>44012</v>
+      </c>
+      <c r="Y79" s="2">
+        <v>24.171012442629561</v>
+      </c>
+      <c r="Z79" s="2">
+        <v>50.985905575954796</v>
+      </c>
+      <c r="AA79" s="2">
+        <v>-0.98170388480431914</v>
+      </c>
+      <c r="AB79" s="2">
+        <v>22.798178846819962</v>
+      </c>
+      <c r="AC79" s="2">
+        <v>-6.9166666666664156</v>
+      </c>
+      <c r="AD79" s="2">
+        <v>29.34772693386503</v>
+      </c>
+      <c r="AE79" s="2">
+        <v>4.4004340201996648</v>
+      </c>
+    </row>
+    <row r="80" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>44104</v>
       </c>
@@ -4271,8 +8527,63 @@
       <c r="O80" s="2">
         <v>110.66258217695299</v>
       </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P80" s="1">
+        <v>44104</v>
+      </c>
+      <c r="Q80" s="2">
+        <f t="shared" si="69"/>
+        <v>-15.660183687343416</v>
+      </c>
+      <c r="R80" s="2">
+        <f t="shared" si="70"/>
+        <v>-708.1420565180772</v>
+      </c>
+      <c r="S80" s="2">
+        <f t="shared" si="20"/>
+        <v>-8.3419853462765534</v>
+      </c>
+      <c r="T80" s="2">
+        <f t="shared" si="72"/>
+        <v>-8.2349665924276536</v>
+      </c>
+      <c r="U80" s="2">
+        <f t="shared" ref="U80:W80" si="81">(G80-G76)/G76*100</f>
+        <v>5.2120938628158697</v>
+      </c>
+      <c r="V80" s="2">
+        <f t="shared" si="81"/>
+        <v>4.5105959930027151</v>
+      </c>
+      <c r="W80" s="2">
+        <f t="shared" si="81"/>
+        <v>-2.652804491691453</v>
+      </c>
+      <c r="X80" s="1">
+        <v>44104</v>
+      </c>
+      <c r="Y80" s="2">
+        <v>-8.3117609387302789</v>
+      </c>
+      <c r="Z80" s="2">
+        <v>-25.38847742976802</v>
+      </c>
+      <c r="AA80" s="2">
+        <v>-3.0828946557890369</v>
+      </c>
+      <c r="AB80" s="2">
+        <v>-14.110165160581969</v>
+      </c>
+      <c r="AC80" s="2">
+        <v>52.666666666666551</v>
+      </c>
+      <c r="AD80" s="2">
+        <v>20.110447252681752</v>
+      </c>
+      <c r="AE80" s="2">
+        <v>-1.1858726365432479</v>
+      </c>
+    </row>
+    <row r="81" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>44196</v>
       </c>
@@ -4318,8 +8629,63 @@
       <c r="O81" s="2">
         <v>114.34252550030899</v>
       </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P81" s="1">
+        <v>44196</v>
+      </c>
+      <c r="Q81" s="2">
+        <f t="shared" si="69"/>
+        <v>-34.745525257015352</v>
+      </c>
+      <c r="R81" s="2">
+        <f t="shared" si="70"/>
+        <v>-1583.6006413932344</v>
+      </c>
+      <c r="S81" s="2">
+        <f t="shared" si="20"/>
+        <v>-18.065021148939582</v>
+      </c>
+      <c r="T81" s="2">
+        <f t="shared" si="72"/>
+        <v>-10.529537376449385</v>
+      </c>
+      <c r="U81" s="2">
+        <f t="shared" ref="U81:W81" si="82">(G81-G77)/G77*100</f>
+        <v>5.8369293663411117</v>
+      </c>
+      <c r="V81" s="2">
+        <f t="shared" si="82"/>
+        <v>4.1021011745274532</v>
+      </c>
+      <c r="W81" s="2">
+        <f t="shared" si="82"/>
+        <v>-23.037382303749578</v>
+      </c>
+      <c r="X81" s="1">
+        <v>44196</v>
+      </c>
+      <c r="Y81" s="2">
+        <v>33.201506082180472</v>
+      </c>
+      <c r="Z81" s="2">
+        <v>-28.049076300513811</v>
+      </c>
+      <c r="AA81" s="2">
+        <v>-2.2045280220166941</v>
+      </c>
+      <c r="AB81" s="2">
+        <v>-27.776330936090872</v>
+      </c>
+      <c r="AC81" s="2">
+        <v>14.833333333333171</v>
+      </c>
+      <c r="AD81" s="2">
+        <v>5.7343611900269016</v>
+      </c>
+      <c r="AE81" s="2">
+        <v>-2.9308901806192051</v>
+      </c>
+    </row>
+    <row r="82" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>44286</v>
       </c>
@@ -4365,8 +8731,63 @@
       <c r="O82" s="2">
         <v>114.05288049332199</v>
       </c>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P82" s="1">
+        <v>44286</v>
+      </c>
+      <c r="Q82" s="2">
+        <f t="shared" si="69"/>
+        <v>-31.977664769074515</v>
+      </c>
+      <c r="R82" s="2">
+        <f t="shared" si="70"/>
+        <v>-2174.0964809782954</v>
+      </c>
+      <c r="S82" s="2">
+        <f t="shared" si="20"/>
+        <v>-19.120525331016154</v>
+      </c>
+      <c r="T82" s="2">
+        <f t="shared" si="72"/>
+        <v>-12.006074811722476</v>
+      </c>
+      <c r="U82" s="2">
+        <f t="shared" ref="U82:W82" si="83">(G82-G78)/G78*100</f>
+        <v>10.334346504559267</v>
+      </c>
+      <c r="V82" s="2">
+        <f t="shared" si="83"/>
+        <v>4.5389293060462919</v>
+      </c>
+      <c r="W82" s="2">
+        <f t="shared" si="83"/>
+        <v>-28.026087858713261</v>
+      </c>
+      <c r="X82" s="1">
+        <v>44286</v>
+      </c>
+      <c r="Y82" s="2">
+        <v>18.002721065408601</v>
+      </c>
+      <c r="Z82" s="2">
+        <v>3.2329842854277757</v>
+      </c>
+      <c r="AA82" s="2">
+        <v>1.205601262040368</v>
+      </c>
+      <c r="AB82" s="2">
+        <v>-2.9228588063753951</v>
+      </c>
+      <c r="AC82" s="2">
+        <v>13.499999999999979</v>
+      </c>
+      <c r="AD82" s="2">
+        <v>3.3807785948447422</v>
+      </c>
+      <c r="AE82" s="2">
+        <v>-1.0925248037495621</v>
+      </c>
+    </row>
+    <row r="83" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>44377</v>
       </c>
@@ -4412,8 +8833,63 @@
       <c r="O83" s="2">
         <v>118.517721212909</v>
       </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P83" s="1">
+        <v>44377</v>
+      </c>
+      <c r="Q83" s="2">
+        <f t="shared" si="69"/>
+        <v>-38.499701713292986</v>
+      </c>
+      <c r="R83" s="2">
+        <f t="shared" si="70"/>
+        <v>-10.197895982268712</v>
+      </c>
+      <c r="S83" s="2">
+        <f t="shared" si="20"/>
+        <v>-43.625736180309488</v>
+      </c>
+      <c r="T83" s="2">
+        <f t="shared" si="72"/>
+        <v>-17.489839897025025</v>
+      </c>
+      <c r="U83" s="2">
+        <f t="shared" ref="U83:W83" si="84">(G83-G79)/G79*100</f>
+        <v>5.7013574660633353</v>
+      </c>
+      <c r="V83" s="2">
+        <f t="shared" si="84"/>
+        <v>1.5238316964206846</v>
+      </c>
+      <c r="W83" s="2">
+        <f t="shared" si="84"/>
+        <v>-41.909904996372411</v>
+      </c>
+      <c r="X83" s="1">
+        <v>44377</v>
+      </c>
+      <c r="Y83" s="2">
+        <v>-12.504383060510579</v>
+      </c>
+      <c r="Z83" s="2">
+        <v>-4.5662657530204385</v>
+      </c>
+      <c r="AA83" s="2">
+        <v>-4.8396279233335786</v>
+      </c>
+      <c r="AB83" s="2">
+        <v>-1.194639651975127</v>
+      </c>
+      <c r="AC83" s="2">
+        <v>6.5833333333333854</v>
+      </c>
+      <c r="AD83" s="2">
+        <v>1.24191928241089</v>
+      </c>
+      <c r="AE83" s="2">
+        <v>-0.1269929674656094</v>
+      </c>
+    </row>
+    <row r="84" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>44469</v>
       </c>
@@ -4459,8 +8935,63 @@
       <c r="O84" s="2">
         <v>115.014211176365</v>
       </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P84" s="1">
+        <v>44469</v>
+      </c>
+      <c r="Q84" s="2">
+        <f t="shared" si="69"/>
+        <v>-3.7079825150231756</v>
+      </c>
+      <c r="R84" s="2">
+        <f t="shared" si="70"/>
+        <v>-148.13576168473875</v>
+      </c>
+      <c r="S84" s="2">
+        <f t="shared" si="20"/>
+        <v>-12.946247330896654</v>
+      </c>
+      <c r="T84" s="2">
+        <f t="shared" si="72"/>
+        <v>-15.638462471937368</v>
+      </c>
+      <c r="U84" s="2">
+        <f t="shared" ref="U84:W84" si="85">(G84-G80)/G80*100</f>
+        <v>-2.2517692472656954</v>
+      </c>
+      <c r="V84" s="2">
+        <f t="shared" si="85"/>
+        <v>1.5849996497170848</v>
+      </c>
+      <c r="W84" s="2">
+        <f t="shared" si="85"/>
+        <v>0.62865818214790103</v>
+      </c>
+      <c r="X84" s="1">
+        <v>44469</v>
+      </c>
+      <c r="Y84" s="2">
+        <v>-29.576291224453982</v>
+      </c>
+      <c r="Z84" s="2">
+        <v>-5.8122819064035713</v>
+      </c>
+      <c r="AA84" s="2">
+        <v>-2.7728829026928858</v>
+      </c>
+      <c r="AB84" s="2">
+        <v>4.1387244102804699</v>
+      </c>
+      <c r="AC84" s="2">
+        <v>-18.50000000000005</v>
+      </c>
+      <c r="AD84" s="2">
+        <v>11.826621289006651</v>
+      </c>
+      <c r="AE84" s="2">
+        <v>1.7158386635673151</v>
+      </c>
+    </row>
+    <row r="85" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>44561</v>
       </c>
@@ -4506,8 +9037,63 @@
       <c r="O85" s="2">
         <v>115.709939423539</v>
       </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P85" s="1">
+        <v>44561</v>
+      </c>
+      <c r="Q85" s="2">
+        <f t="shared" si="69"/>
+        <v>32.316508872212147</v>
+      </c>
+      <c r="R85" s="2">
+        <f t="shared" si="70"/>
+        <v>-144.49738374382116</v>
+      </c>
+      <c r="S85" s="2">
+        <f t="shared" si="20"/>
+        <v>-0.18450587446074418</v>
+      </c>
+      <c r="T85" s="2">
+        <f t="shared" si="72"/>
+        <v>-17.044367910813286</v>
+      </c>
+      <c r="U85" s="2">
+        <f t="shared" ref="U85:W85" si="86">(G85-G81)/G81*100</f>
+        <v>-3.3261802575107122</v>
+      </c>
+      <c r="V85" s="2">
+        <f t="shared" si="86"/>
+        <v>0.44821499278977001</v>
+      </c>
+      <c r="W85" s="2">
+        <f t="shared" si="86"/>
+        <v>12.52061186139753</v>
+      </c>
+      <c r="X85" s="1">
+        <v>44561</v>
+      </c>
+      <c r="Y85" s="2">
+        <v>-24.636946289351311</v>
+      </c>
+      <c r="Z85" s="2">
+        <v>-0.80507750590723681</v>
+      </c>
+      <c r="AA85" s="2">
+        <v>-1.9806306447806339</v>
+      </c>
+      <c r="AB85" s="2">
+        <v>6.0142565833942951</v>
+      </c>
+      <c r="AC85" s="2">
+        <v>-13.16666666666659</v>
+      </c>
+      <c r="AD85" s="2">
+        <v>0.92752977972850204</v>
+      </c>
+      <c r="AE85" s="2">
+        <v>0.48394395153698788</v>
+      </c>
+    </row>
+    <row r="86" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>44651</v>
       </c>
@@ -4553,8 +9139,63 @@
       <c r="O86" s="2">
         <v>110.541715912773</v>
       </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P86" s="1">
+        <v>44651</v>
+      </c>
+      <c r="Q86" s="2">
+        <f t="shared" si="69"/>
+        <v>33.638961974070789</v>
+      </c>
+      <c r="R86" s="2">
+        <f t="shared" si="70"/>
+        <v>-160.61679986399503</v>
+      </c>
+      <c r="S86" s="2">
+        <f t="shared" si="20"/>
+        <v>8.1925324175705931</v>
+      </c>
+      <c r="T86" s="2">
+        <f t="shared" si="72"/>
+        <v>-17.415221177564614</v>
+      </c>
+      <c r="U86" s="2">
+        <f t="shared" ref="U86:W86" si="87">(G86-G82)/G82*100</f>
+        <v>-5.8486967577876552</v>
+      </c>
+      <c r="V86" s="2">
+        <f t="shared" si="87"/>
+        <v>-0.82704981531951249</v>
+      </c>
+      <c r="W86" s="2">
+        <f t="shared" si="87"/>
+        <v>-9.7009211365389643</v>
+      </c>
+      <c r="X86" s="1">
+        <v>44651</v>
+      </c>
+      <c r="Y86" s="2">
+        <v>-11.21354042381151</v>
+      </c>
+      <c r="Z86" s="2">
+        <v>8.0077321977989122</v>
+      </c>
+      <c r="AA86" s="2">
+        <v>-1.463944389620486</v>
+      </c>
+      <c r="AB86" s="2">
+        <v>7.4909985841033588</v>
+      </c>
+      <c r="AC86" s="2">
+        <v>-17.250000000000121</v>
+      </c>
+      <c r="AD86" s="2">
+        <v>-9.4910469229794217</v>
+      </c>
+      <c r="AE86" s="2">
+        <v>-1.931857709675914</v>
+      </c>
+    </row>
+    <row r="87" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>44742</v>
       </c>
@@ -4600,8 +9241,63 @@
       <c r="O87" s="2">
         <v>99.617961634538105</v>
       </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P87" s="1">
+        <v>44742</v>
+      </c>
+      <c r="Q87" s="2">
+        <f t="shared" si="69"/>
+        <v>36.896087335364442</v>
+      </c>
+      <c r="R87" s="2">
+        <f t="shared" si="70"/>
+        <v>-211.26295851906266</v>
+      </c>
+      <c r="S87" s="2">
+        <f t="shared" ref="S87:S88" si="88">(C87-C83)/C83*100</f>
+        <v>27.38499132573854</v>
+      </c>
+      <c r="T87" s="2">
+        <f t="shared" si="72"/>
+        <v>-8.9973707274320756</v>
+      </c>
+      <c r="U87" s="2">
+        <f t="shared" ref="U87:W87" si="89">(G87-G83)/G83*100</f>
+        <v>-4.2594178082191601</v>
+      </c>
+      <c r="V87" s="2">
+        <f t="shared" si="89"/>
+        <v>-2.0554403704468083</v>
+      </c>
+      <c r="W87" s="2">
+        <f t="shared" si="89"/>
+        <v>-10.76921592234083</v>
+      </c>
+      <c r="X87" s="1">
+        <v>44742</v>
+      </c>
+      <c r="Y87" s="2">
+        <v>0.68143575912931187</v>
+      </c>
+      <c r="Z87" s="2">
+        <v>7.0546467494253307</v>
+      </c>
+      <c r="AA87" s="2">
+        <v>-1.016149635148333</v>
+      </c>
+      <c r="AB87" s="2">
+        <v>3.5509902331020795</v>
+      </c>
+      <c r="AC87" s="2">
+        <v>6.6666666666668206</v>
+      </c>
+      <c r="AD87" s="2">
+        <v>-15.696291043804649</v>
+      </c>
+      <c r="AE87" s="2">
+        <v>-0.98412323786790701</v>
+      </c>
+    </row>
+    <row r="88" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>44834</v>
       </c>
@@ -4647,34 +9343,103 @@
       <c r="O88" s="2">
         <v>100.49958350934401</v>
       </c>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P88" s="1">
+        <v>44834</v>
+      </c>
+      <c r="Q88" s="2">
+        <f t="shared" si="69"/>
+        <v>26.726993490936664</v>
+      </c>
+      <c r="R88" s="2">
+        <f t="shared" si="70"/>
+        <v>107.41784187501311</v>
+      </c>
+      <c r="S88" s="2">
+        <f t="shared" si="88"/>
+        <v>38.542193410980317</v>
+      </c>
+      <c r="T88" s="2">
+        <f t="shared" si="72"/>
+        <v>-5.4751908225372885</v>
+      </c>
+      <c r="U88" s="2">
+        <f t="shared" ref="U88:W88" si="90">(G88-G84)/G84*100</f>
+        <v>-3.6638876700307037</v>
+      </c>
+      <c r="V88" s="2">
+        <f t="shared" si="90"/>
+        <v>-2.5687285446300043</v>
+      </c>
+      <c r="W88" s="2">
+        <f t="shared" si="90"/>
+        <v>-5.2078036902444218</v>
+      </c>
+      <c r="X88" s="1"/>
+    </row>
+    <row r="89" spans="1:31" x14ac:dyDescent="0.3">
       <c r="F89" s="2"/>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:31" x14ac:dyDescent="0.3">
       <c r="F90" s="2"/>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="B91" s="2">
+        <f t="shared" ref="B91:D91" si="91">MIN(B3:B88)</f>
+        <v>-1.329930774149241</v>
+      </c>
+      <c r="C91" s="2">
+        <f t="shared" si="91"/>
+        <v>-2.942476542367817</v>
+      </c>
+      <c r="D91" s="2">
+        <f>MIN(D3:D88)</f>
+        <v>-1.4098685208620281</v>
+      </c>
+      <c r="E91" s="2">
+        <f>MIN(E3:E88)</f>
+        <v>-3.8219732207979482</v>
+      </c>
       <c r="F91" s="2"/>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="B92" s="2">
+        <f t="shared" ref="B92:D92" si="92">MAX(B3:B88)</f>
+        <v>4.7388080365629728</v>
+      </c>
+      <c r="C92" s="2">
+        <f t="shared" si="92"/>
+        <v>2.341729953669462</v>
+      </c>
+      <c r="D92" s="2">
+        <f t="shared" si="92"/>
+        <v>1.141872664622323</v>
+      </c>
+      <c r="E92" s="2">
+        <f>MAX(E3:E88)</f>
+        <v>1.7846892842702089</v>
+      </c>
       <c r="F92" s="2"/>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:31" x14ac:dyDescent="0.3">
       <c r="F93" s="2"/>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:31" x14ac:dyDescent="0.3">
       <c r="F94" s="2"/>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:31" x14ac:dyDescent="0.3">
       <c r="F95" s="2"/>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:31" x14ac:dyDescent="0.3">
       <c r="F96" s="2"/>
       <c r="G96" s="2"/>
       <c r="I96" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="Q4:W4"/>
+    <mergeCell ref="Y1:AE1"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4683,57 +9448,57 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30F06561-A5A1-4446-BDBE-A1089CA45D1A}">
   <dimension ref="A1:S87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="J1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="8" t="s">
         <v>13</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="11" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
@@ -9139,32 +13904,32 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
